--- a/data/genius_Bushido_Jenseits-von-gut-und-bose.xlsx
+++ b/data/genius_Bushido_Jenseits-von-gut-und-bose.xlsx
@@ -456,8 +456,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Hook:]Es war jetzt 1 Jahr mucksmäuschenstillDeutscher Rap lebt wieder und ich hab jetzt Lust ihn zu killenDas ist Jenseits von Gut und B-B-B-B- BöseBin der König hier im Dschungel wie ein Löwe[2x][Verse I:]Das hier ist ganz großes Kino, scheiß auf Gramm hier gibts KilosUnd Kay One schreit jetzt wieder:"Hebt die Hand für Bushido!"Deutschrap bleibt mein Homie das Gesetz fick ich sowie BerlusconiNennt mich Scarface ich bin T- T-T-T-TonyVon der Hauptstadt nach New York, vom Bordstein bis zur SkylineSelfmade Millionär und glaub mir ja von Vorteil ist nur Reich seinIhr könnt aufhörn hier zu Blasen. Ich Trau mich was zu sagenUnd Berlin ist wie Monopoly ich kauf mir jetzt die StraßenJunge das hier war mein Kinofilm Glaub mir Zeiten ändern sichRest in Peace Bernd Eichinger Ja mein Freund ich denk an dichUnd blick auf den Horizont und bin gerade so benommenAls würd' eine Kugel jetzt von links hier geflogen kommenIhr seid mir zu Loveparade ich Arbeite so hart wies gehtBis eines Tages der Bestatter Nägel in den Sarg reinschlägtIch geh ganz klar den Weg geradeaus die Welt ist GrauIch weiß genau, ich werde niemanden außer mir selbst Vertrauen[Hook 2x]Es war jetzt 1 Jahr mucksmäuschenstillDeutscher Rap lebt wieder und ich hab jetzt Lust ihn zu killenDas ist Jenseits von Gut und B-B-B-B- BöseBin der König hier im Dschungel wie ein Löwe
-[Verse II:]Ich war als Kind auf den Straßen, auf den Spielplätzen saßenIch und meine Jungs doch wir hatten nicht viel und sind AbendsIn den Park, wir besaßen wirklich nichts deshalb spartenWir auf all die dinge die ich jetzt besitz: Haus und GartenIch leb einfach unsern Ghetto-Traum einer musstes schaffen hierJetzt wach ich schweißgebadet auf im Nightliner nachts um 4Passkopiert durch den Zoll Good Bye DeutschlandFickt euch alle NYC, Sonny Black, Weißes Shirt Gib die Knarre - PotenzialWer macht Business? Wer macht Geld? Wieder AnisVon Berlin bis nach Queens und zurück zum Ceasar PalaceIch bin jetzt wieder Back und Skip euren TeenierapVertick Drogendealertracks und Piss auf Das InternetNimm den Scheck und verpiss dich Deutscher Rap ist mein GrundstückDu willst nicht, dass ich dich vor deinen Freunden in den Mund fickKomm und du gehst drauf man ich schreib den Song im AuslandDie Bitch bringt Entrecôte mit Austern[Hook 2x]Es war jetzt 1 Jahr mucksmäuschenstillDeutscher Rap lebt wieder und ich hab jetzt Lust ihn zu killenDas ist Jenseits von Gut und B-B-B-B- BöseBin der König hier im Dschungel wie ein Löwe-RapGeniusDeutschland</t>
+          <t>[Hook:]
+Es war jetzt 1 Jahr mucksmäuschenstill
+Deutscher Rap lebt wieder und ich hab jetzt Lust ihn zu killen
+Das istJenseits von Gut und B-B-B-B- Böse
+Bin der König hier im Dschungel wie ein Löwe
+[2x]
+[Verse I:]
+Das hier ist ganz großes Kino,scheiß auf Gramm hier gibts Kilos
+Und Kay One schreit jetzt wieder:"Hebt die Hand für Bushido!"
+Deutschrap bleibt mein Homie das Gesetz fick ich sowie Berlusconi
+Nennt mich Scarface ich bin T- T-T-T-Tony
+Von der Hauptstadt nach New York,vom Bordstein bis zur Skyline
+Selfmade Millionärund glaub mir ja von Vorteil ist nur Reich sein
+Ihr könnt aufhörn hier zu Blasen. Ich Trau mich was zu sagen
+Und Berlin ist wie Monopoly ich kauf mir jetzt die Straßen
+Junge das hier war mein Kinofilm Glaub mir Zeiten ändern sichRest in Peace Bernd Eichinger Ja mein Freund ich denk an dich
+Und blick auf den Horizont und bin gerade so benommen
+Als würd' eine Kugel jetzt von links hier geflogen kommen
+Ihr seid mir zu Loveparade ich Arbeite so hart wies geht
+Bis eines Tages der Bestatter Nägel in den Sarg reinschlägt
+Ich geh ganz klar den Weg geradeaus die Welt ist Grau
+Ich weiß genau, ich werde niemanden außer mir selbst Vertrauen
+[Hook 2x]
+Es war jetzt 1 Jahr mucksmäuschenstill
+Deutscher Rap lebt wieder und ich hab jetzt Lust ihn zu killen
+Das ist Jenseits von Gut und B-B-B-B- Böse
+Bin der König hier im Dschungel wie ein Löwe
+[Verse II:]
+Ich war als Kind auf den Straßen, auf den Spielplätzen saßen
+Ich und meine Jungs doch wir hatten nicht viel und sind Abends
+In den Park, wir besaßen wirklich nichts deshalb sparten
+Wir auf all die dinge die ich jetzt besitz: Haus und Garten
+Ich leb einfach unsern Ghetto-Traum einer musstes schaffen hier
+Jetzt wach ich schweißgebadet auf im Nightliner nachts um 4
+Passkopiert durch den Zoll Good Bye Deutschland
+Fickt euch alle NYC, Sonny Black, Weißes Shirt Gib die Knarre - Potenzial
+Wer macht Business? Wer macht Geld? Wieder Anis
+Von Berlin bis nach Queens und zurück zum Ceasar Palace
+Ich bin jetzt wieder Back und Skip euren Teenierap
+Vertick Drogendealertracks und Piss auf Das Internet
+Nimm den Scheck und verpiss dich Deutscher Rap ist mein Grundstück
+Du willst nicht, dass ich dich vor deinen Freunden in den Mund fick
+Komm und du gehst drauf man ich schreib den Song im AuslandDie Bitch bringt Entrecôte mit Austern
+[Hook 2x]
+Es war jetzt 1 Jahr mucksmäuschenstill
+Deutscher Rap lebt wieder und ich hab jetzt Lust ihn zu killen
+Das ist Jenseits von Gut und B-B-B-B- Böse
+Bin der König hier im Dschungel wie ein Löwe
+-RapGeniusDeutschland</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -511,8 +558,74 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Part 1]Ich trag' von Montag bis Freitag den Koks-Dealer-BlickDer der den Vogue-Titel schmücktZum Mond und zurück, so viel Kilometer fahr ich, Kilo's auf dem Glastisch, ja, Bushido ist japanischDeine Rap-Fangemeinde ist tot, sitzt allein hier im Boot, meine Nikes sind verchromtDu Idiot, denkst du im Ernst, dass ich polarisier' mit diesem endkrassen Verse?Für die Fans gibts ein Shirt, für dich gibts nixDu bist kein Playboy, weil du Autist nix fickstDas Business ist heute wie mein SohnLederjacke, tätowiert, du wirkst wie ein KlonUnd deine Freestyle-Show bringt gegen mich nicht vielDu bist wie Heidi, nur eine Bitch, die schieltWie der Zufall es will bist du jetzt im Kuhkaff am Chill'nUnd ich fick' 'ne Fußballer-Milf[Hook]Ihr seid mir alle viel zu Beverly HillsUnd diese Möchtegern-Topmodels fressen nur Pill'nEgal ob Pop-Stars oder DSDSIn meinen Augen seid ihr alle nur Dreck, verrecktIhr seid mir alle viel zu Beverly HillsUnd diese Möchtegern-Topmodels fressen nur Pill'nEgal ob Pop-Stars oder DSDSDas bisschen Fame hier nehm' ich euch weg, verreckt[Part 2]Ich trag' am Samstag und Sonntag den JogginganzugDu bist nur dieser Typ, der die Bodyguards ruftMach mir nichts vorDu wurdest als Bastard gebor'nDu Mädchen hast Strass an den Ohr'nDu machst Rap für die HeadsDoch Chef Sonny Black unterschreibt lieber Schecks per ExpressDu bist back? Wo warst du denn überhaupt?Ich bin faul, komm trag dem Star seine Tüten raufIch weiß genau, wie sehr mich die Streber hassenIch sammel Frau'n, wie dein Vater die leeren FlaschenUnd schon als Kind war ich dieser ProletDu hast zwei Poster von Justin Bieber und KayDu Vollzeitstudent, hättest lieber statt eines Golf einen BenzEs it' Gold was hier glänztJeder denkt, rappen wär' so einfachDoch keiner hier in Deutschland erreicht was!
-[Hook]Ihr seid mir alle viel zu Beverly HillsUnd diese Möchtegern-Topmodels fressen nur Pill'nEgal ob Pop-Stars oder DSDSIn meinen Augen seid ihr alle nur Dreck, verrecktIhr seid mir alle viel zu Beverly HillsUnd diese Möchtegern-Topmodels fressen nur Pill'nEgal ob Pop-Stars oder DSDSDas bisschen Fame hier nehm' ich euch weg, verreckt[Bridge: Bushido &amp; Kay One]Hallo!Jo, Bruder ich bin'sHey Kay, was geht alter?Was geht ab, du, ich hab' mir grad' deinen Song angehört und du sagst da irgendwie, äh, du Mädchen hast Strass an den Ohr'n, das' aber nicht gegen mich, wa?Ey, bist du blöde Mann, warum soll ich dich denn meinen, du hast Diamanten an den Ohren, alter?Ah, okay, weil ich hab' mich angegriffen gefühlt, deswegen, ok, alles klarNein, nein, niemals Bruder, niemals, alterOkay!Okay, peace![Hook]Ihr seid mir alle viel zu Beverly HillsUnd diese Möchtegern-Topmodels fressen nur Pill'nEgal ob Pop-Stars oder DSDSIn meinen Augen seid ihr alle nur Dreck, verrecktIhr seid mir alle viel zu Beverly HillsUnd diese Möchtegern-Topmodels fressen nur Pill'nEgal ob Pop-Stars oder DSDSDas bisschen Fame hier nehm' ich euch weg, verreckt</t>
+          <t>[Part 1]
+Ich trag' von Montag bis Freitag den Koks-Dealer-Blick
+Der der den Vogue-Titel schmückt
+Zum Mond und zurück, so viel Kilometer fahr ich, Kilo's auf dem Glastisch, ja,Bushido ist japanisch
+Deine Rap-Fangemeinde ist tot, sitzt allein hier im Boot, meine Nikes sind verchromt
+Du Idiot, denkst du im Ernst, dass ich polarisier' mit diesem endkrassen Verse?
+Für die Fans gibts ein Shirt, für dich gibts nix
+Du bist kein Playboy, weil du Autist nix fickst
+Das Business ist heute wie mein SohnLederjacke, tätowiert, du wirkst wie ein Klon
+Und deine Freestyle-Show bringt gegen mich nicht viel
+Du bist wie Heidi, nur eine Bitch, die schielt
+Wie der Zufall es will bist du jetzt im Kuhkaff am Chill'n
+Undich fick' 'ne Fußballer-Milf
+[Hook]
+Ihr seid mir alle viel zu Beverly Hills
+Und diese Möchtegern-Topmodels fressen nur Pill'n
+Egal ob Pop-Stars oder DSDS
+In meinen Augen seid ihr alle nur Dreck, verreckt
+Ihr seid mir alle viel zu Beverly Hills
+Und diese Möchtegern-Topmodels fressen nur Pill'n
+Egal ob Pop-Stars oder DSDS
+Das bisschen Fame hier nehm' ich euch weg, verreckt
+[Part 2]
+Ich trag' am Samstag und Sonntag den Jogginganzug
+Du bist nur dieser Typ, der die Bodyguards ruft
+Mach mir nichts vor
+Du wurdest als Bastard gebor'n
+Du Mädchen hast Strass an den Ohr'n
+Du machst Rap für die Heads
+Doch Chef Sonny Black unterschreibt lieber Schecks per Express
+Du bist back? Wo warst du denn überhaupt?
+Ich bin faul, komm trag dem Star seine Tüten rauf
+Ich weiß genau, wie sehr mich die Streber hassen
+Ich sammel Frau'n, wie dein Vater die leeren Flaschen
+Und schon als Kind war ich dieser Prolet
+Du hast zwei Poster von Justin Bieber und Kay
+Du Vollzeitstudent, hättest lieber statt eines Golf einen Benz
+Es it' Gold was hier glänzt
+Jeder denkt, rappen wär' so einfach
+Doch keiner hier in Deutschland erreicht was!
+[Hook]
+Ihr seid mir alle viel zu Beverly Hills
+Und diese Möchtegern-Topmodels fressen nur Pill'n
+Egal ob Pop-Stars oder DSDS
+In meinen Augen seid ihr alle nur Dreck, verreckt
+Ihr seid mir alle viel zu Beverly Hills
+Und diese Möchtegern-Topmodels fressen nur Pill'n
+Egal ob Pop-Stars oder DSDS
+Das bisschen Fame hier nehm' ich euch weg, verreckt
+[Bridge: Bushido &amp; Kay One]
+Hallo!
+Jo, Bruder ich bin's
+Hey Kay, was geht alter?
+Was geht ab, du, ich hab' mir grad' deinen Song angehört und du sagst da irgendwie, äh, du Mädchen hast Strass an den Ohr'n, das' aber nicht gegen mich, wa?
+Ey, bist du blöde Mann, warum soll ich dich denn meinen, du hast Diamanten an den Ohren, alter?
+Ah, okay, weil ich hab' mich angegriffen gefühlt, deswegen, ok, alles klar
+Nein, nein, niemals Bruder, niemals, alter
+Okay!
+Okay, peace!
+[Hook]
+Ihr seid mir alle viel zu Beverly Hills
+Und diese Möchtegern-Topmodels fressen nur Pill'n
+Egal ob Pop-Stars oder DSDS
+In meinen Augen seid ihr alle nur Dreck, verreckt
+Ihr seid mir alle viel zu Beverly Hills
+Und diese Möchtegern-Topmodels fressen nur Pill'n
+Egal ob Pop-Stars oder DSDS
+Das bisschen Fame hier nehm' ich euch weg, verreckt</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,8 +679,57 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>English Translation[Bushido:]Warum führen wir Krieg, warum töten wir hierManchmal wird mir klar ich hab Böses in mirViel böses passiert, es war schön und gutDoch warum wird aus Öl nur BlutWarum sind wir stur gehn über LeichenKinder werden geboren, hungern, verzweifelnDie Reichen werden reicher und Arme bleiben armIch stelle mir die Frage \"was haben sie getan?\"Es bleibt wie es bleibt in uns steckt die gierWarum müssen wir uns im Dunkeln verliernAuf der Suche nach Licht aus Liebe wird GiftEs fehlt die Moral man erschießt sich für nichtsWarum hat man Angst, Angst vor der ZukunftWarum schlägt die Hilflosigkeit nur in Wut um?Das sind wir Menschen voller Kummer und SorgenDoch Gott schenkt uns ein Morgen[Xavier Naidoo:]Ich glaube es nicht, dass du es bist, der diese Welt zerstörtIch seh in dein lächelndes Gesicht und weiß wem mein Herz gehört[Bushido:]Warum schlagen wir Profit aus der AngstWarum sind wir Menschen verliebt in den KampfWarum sind die Schwachen für uns eine LastAllein und verloren in der dunkelsten NachtDie Erde sie bebt, der Himmel er weintTrotzdem bittet keiner einen Fremden hereinMan schließt seine Augen, lebt vor sich hinWarum suchen wir nur stets nach dem SinnWir streben nach Glück, das Ziel scheint so fernUnd so unerreichbar für uns, wie ein SternWarum sind wir müde, träge und kaltDas Leben macht alt es fehlt uns der HaltUnd wir wissen nicht weiter, in diesem Nebel aus ZornUnd es geht nicht nach vorn, das sind wir Menschen voller Kummer und SorgenDoch Gott schenkt uns ein Morgen
-[Xavier Naidoo:]Ich glaube es nicht, dass du es bist, der diese Welt zerstörtIch seh in dein lächelndes Gesicht und weiß wem mein Herz gehörtDu bist nicht schlecht, du bist nicht böseDu bist nicht der Kleinste und auch nicht das GrößteDu bist ein Mensch, nicht mehr und nicht wenigerJäger oder Prediger, Poet und LegasthenikerDu bist ein MenschIch glaube es nicht, dass du es bist, der diese Welt zerstörtIch seh in dein lächelndes Gesicht und weiß wem mein Herz gehörtDu bist ein MenschIch glaube es nicht, dass du es bist, der diese Welt zerstörtIch seh in dein lächelndes Gesicht und weiß wem mein Herz gehörtDu bist ein Mensch</t>
+          <t>English Translation
+[Bushido:]
+Warum führen wir Krieg, warum töten wir hier
+Manchmal wird mir klar ich hab Böses in mir
+Viel böses passiert, es war schön und gut
+Doch warum wird aus Öl nur Blut
+Warum sind wir stur gehn über Leichen
+Kinder werden geboren, hungern, verzweifeln
+Die Reichen werden reicher und Arme bleiben arm
+Ich stelle mir die Frage \"was haben sie getan?\"
+Es bleibt wie es bleibt in uns steckt die gier
+Warum müssen wir uns im Dunkeln verliern
+Auf der Suche nach Licht aus Liebe wird Gift
+Es fehlt die Moral man erschießt sich für nichts
+Warum hat man Angst, Angst vor der Zukunft
+Warum schlägt die Hilflosigkeit nur in Wut um?
+Das sind wir Menschen voller Kummer und Sorgen
+Doch Gott schenkt uns ein Morgen
+[Xavier Naidoo:]
+Ich glaube es nicht, dass du es bist, der diese Welt zerstört
+Ich seh in dein lächelndes Gesicht und weiß wem mein Herz gehört
+[Bushido:]
+Warum schlagen wir Profit aus der Angst
+Warum sind wir Menschen verliebt in den Kampf
+Warum sind die Schwachen für uns eine Last
+Allein und verloren in der dunkelsten Nacht
+Die Erde sie bebt, der Himmel er weint
+Trotzdem bittet keiner einen Fremden herein
+Man schließt seine Augen, lebt vor sich hin
+Warum suchen wir nur stets nach dem Sinn
+Wir streben nach Glück, das Ziel scheint so fern
+Und so unerreichbar für uns, wie ein Stern
+Warum sind wir müde, träge und kalt
+Das Leben macht alt es fehlt uns der Halt
+Und wir wissen nicht weiter, in diesem Nebel aus Zorn
+Und es geht nicht nach vorn, das sind wir Menschen voller Kummer und Sorgen
+Doch Gott schenkt uns ein Morgen
+[Xavier Naidoo:]
+Ich glaube es nicht, dass du es bist, der diese Welt zerstört
+Ich seh in dein lächelndes Gesicht und weiß wem mein Herz gehört
+Du bist nicht schlecht, du bist nicht böse
+Du bist nicht der Kleinste und auch nicht das Größte
+Du bist ein Mensch, nicht mehr und nicht weniger
+Jäger oder Prediger, Poet und Legastheniker
+Du bist ein Mensch
+Ich glaube es nicht, dass du es bist, der diese Welt zerstört
+Ich seh in dein lächelndes Gesicht und weiß wem mein Herz gehört
+Du bist ein Mensch
+Ich glaube es nicht, dass du es bist, der diese Welt zerstört
+Ich seh in dein lächelndes Gesicht und weiß wem mein Herz gehört
+Du bist ein Mensch</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -621,9 +783,99 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Intro]Many faces[?] placesSun is [?]World definingFace the lightFunny to see your eyes[?] faces[?] placesSun is [?]World definingFace the lightFunny to see your eyesMany faces[?] placesSun is [?]World definingFace the light (You're now listening to AraabMUZIK)Funny to see your eyes[Part 1]Kann mir nicht vorstell'n, dass du von mir gehstSchreib' dir diesen Song und legIhn vor deine Tür, du hörst ihn an, ich weiß dir komm'n die Trän'nDu bist der tollste Mensch auf Erden, ich mein' das ernstEgal wie schlecht ich bin, du warst mein Lichtlein im HerzWarst in guten Zeiten da, in schlechten Zeiten daUnd was ich dir schon immer sagen wollt', ich schätze deine ArtIch versprech' es, die Sonne geht auf wenn du lächelstUnd hätt' ich nichts, würd' ich für dich raus geh'n und bettelnFür mich bist du die Luft zum Atmen, die FeuerleiterWenn das Haus mal brennt für dich, geh' ich raus, ich steh' auf und kämpf'Du hast mir beigebracht, nicht aufzugebenNur wegen dir fing ich einfach an, mein'n Traum zu lebenUnd sie flossen raus, die Trän'nVerdammt mein Glücksrad bewegt sich nichtWärst du nicht da, würd' ich mein'n, das Schicksal wär gegen michEin Blick hoch, es regnet nichtMehr, denn die Sonne kommt jetzt rausUnd ich schreib' für dich den Song, dass du mir glaubst
-[Hook]Ich habe dich gesuchtUnd dann gefundenEs tut gutUnd bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefundenIch habe dich gesuchtUnd dann gefundenEs tut gutUnd bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefunden[Part 2]Und glaubst du's mir, ich wär' so gern wie du ein Sonnenschein, den jeder liebtSo blind vor Liebe, dass du auch oft nicht jeden meiner Fehler siehstDu fängst mich auf und holst mich ausDem tiefsten Loch, du weißt genau dass ich dir so vertrau' Verdammt, du kannst mir glauben ich wär' wirklich gern wie duJa du hörst mir gerne zuUnd alles, was ich nicht versteh' erklärst du gutUnd du hast mir Mut gemacht, viel durchzusteh'nOhne dich hätt' ich mich nie gewagt, durch diese Hölle durchzugeh'nFür mich bist du mein Schutzengel, weil du mir Wärme gibst an kalten TagenUnd durch dich vergess' ich meine alten NarbenIch bin Gott so dankbar ich dank für jeden AugenblickUnd selbst auf dem dunkelsten Pfad bist du mein AugenlichtHörst, du mich ich brauche dich, ich fühle mich hilflos wie ein kleines KindDas seine Eltern sucht, denn es will bloß dass sie bei ihm sindIch hoff', du hast verstanden worum es mir gehtIch will die Tage und die Stunden nicht zähl'nBis du gehst
-[Hook]Ich habe dich gesuchtUnd dann gefundenEs tut gutUnd bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefundenIch habe dich gesuchtUnd dann gefundenEs tut gutUnd bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefunden[Bridge]Ich zähl' die Tage, Sekunden und die StundenWir haben uns gesucht, wir haben uns gefundenGanz egal was gestern war, egal was morgen wirdJa ich habe mich geirrt, da Liebe niemals stirbtIch zähl' die Tage, Sekunden und die StundenWir haben uns gesucht, wir haben uns gefundenGanz egal was gestern war, egal was morgen wirdJa ich habe mich geirrt, da Liebe niemals stirbt[Hook]Ich habe dich gesuchtUnd dann gefundenEs tut gutUnd bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefundenIch habe dich gesuchtUnd dann gefundenEs tut gutUnd bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefunden</t>
+          <t>[Intro]
+Many faces
+[?] places
+Sun is [?]
+World defining
+Face the light
+Funny to see your eyes
+[?] faces
+[?] places
+Sun is [?]
+World defining
+Face the light
+Funny to see your eyes
+Many faces
+[?] places
+Sun is [?]
+World defining
+Face the light (You're now listening to AraabMUZIK)
+Funny to see your eyes
+[Part 1]
+Kann mir nicht vorstell'n, dass du von mir gehst
+Schreib' dir diesen Song und leg
+Ihn vor deine Tür, du hörst ihn an, ich weiß dir komm'n die Trän'n
+Du bist der tollste Mensch auf Erden, ich mein' das ernst
+Egal wie schlecht ich bin, du warst mein Lichtlein im Herz
+Warst in guten Zeiten da, in schlechten Zeiten da
+Und was ich dir schon immer sagen wollt', ich schätze deine Art
+Ich versprech' es, die Sonne geht auf wenn du lächelst
+Und hätt' ich nichts, würd' ich für dich raus geh'n und betteln
+Für mich bist du die Luft zum Atmen, die Feuerleiter
+Wenn das Haus mal brennt für dich, geh' ich raus, ich steh' auf und kämpf'
+Du hast mir beigebracht, nicht aufzugeben
+Nur wegen dir fing ich einfach an, mein'n Traum zu leben
+Und sie flossen raus, die Trän'n
+Verdammt mein Glücksrad bewegt sich nicht
+Wärst du nicht da, würd' ich mein'n, das Schicksal wär gegen mich
+Ein Blick hoch, es regnet nicht
+Mehr, denn die Sonne kommt jetzt raus
+Und ich schreib' für dich den Song, dass du mir glaubst
+[Hook]
+Ich habe dich gesucht
+Und dann gefunden
+Es tut gut
+Und bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefunden
+Ich habe dich gesucht
+Und dann gefunden
+Es tut gut
+Und bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefunden
+[Part 2]
+Und glaubst du's mir, ich wär' so gern wie du ein Sonnenschein, den jeder liebt
+So blind vor Liebe, dass du auch oft nicht jeden meiner Fehler siehst
+Du fängst mich auf und holst mich aus
+Dem tiefsten Loch, du weißt genau dass ich dir so vertrau' Verdammt, du kannst mir glauben ich wär' wirklich gern wie du
+Ja du hörst mir gerne zu
+Und alles, was ich nicht versteh' erklärst du gut
+Und du hast mir Mut gemacht, viel durchzusteh'n
+Ohne dich hätt' ich mich nie gewagt, durch diese Hölle durchzugeh'n
+Für mich bist du mein Schutzengel, weil du mir Wärme gibst an kalten Tagen
+Und durch dich vergess' ich meine alten Narben
+Ich bin Gott so dankbar ich dank für jeden Augenblick
+Und selbst auf dem dunkelsten Pfad bist du mein Augenlicht
+Hörst, du mich ich brauche dich, ich fühle mich hilflos wie ein kleines Kind
+Das seine Eltern sucht, denn es will bloß dass sie bei ihm sind
+Ich hoff', du hast verstanden worum es mir geht
+Ich will die Tage und die Stunden nicht zähl'n
+Bis du gehst
+[Hook]
+Ich habe dich gesucht
+Und dann gefunden
+Es tut gut
+Und bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefunden
+Ich habe dich gesucht
+Und dann gefunden
+Es tut gut
+Und bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefunden
+[Bridge]
+Ich zähl' die Tage, Sekunden und die Stunden
+Wir haben uns gesucht, wir haben uns gefunden
+Ganz egal was gestern war, egal was morgen wird
+Ja ich habe mich geirrt, da Liebe niemals stirbt
+Ich zähl' die Tage, Sekunden und die Stunden
+Wir haben uns gesucht, wir haben uns gefunden
+Ganz egal was gestern war, egal was morgen wird
+Ja ich habe mich geirrt, da Liebe niemals stirbt
+[Hook]
+Ich habe dich gesucht
+Und dann gefunden
+Es tut gut
+Und bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefunden
+Ich habe dich gesucht
+Und dann gefunden
+Es tut gut
+Und bis an's Ende dieser Zeit folg ich dir, denn wir zwei haben uns einfach gesucht, uns gesucht und gefunden</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -677,10 +929,70 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Hook - Bushido]Es geht um Kohle, Rap, Macht und Respekt.(x3)Es geht um Kohle, Ko-Ko-Ko-Ko-KohleUnd ja, ich hör sie sagen, was wir tun wäre falschDoch euer euer Neid und die Wut lässt uns kaltUnd ja ich hör sie sagen was wir tun war nicht richtigJunge das ist Business! Ko-Ko-Ko-Ko-Kohle[Part 1]Jenseits von Gut und Böse, hier vom TellerwäscherZum Millionär, fick dich und deine elf SemesterUnd Willkommen in der PenthousesuiteNutte hab ich nicht gesagt deine Pumps ausziehenSonny Black, King Bushido verdammtAnis warum gibst du Sido die Hand?Es ist nicht euer Problem, ich bin heute im GameIch will ein Beat und zahl 100.000 Euro bei DreEy Kay, lass uns Deutschrap zerstör´n, kein Feature für Cash900 Euro PAPS, Jeans oder Sweat Shirt. Ich trag aufHalbe Mille für ein Auto, ich schwör´s dir ich kauf´sDowntown Manhattan, Swiss nimmt mich auf, ich will rappenDeluxe Box, ich find die Outtakes am BestenAnkunft um drei, Frankfurt am MainIch hab keine Autogrammkarten bei, bye
-[Hook - Bushido][Part 2 - Kay One]No clouds in my stormes! Wer ist schon Kool Savas?Kay One, ich genieß ein Ruf so wie Bruno MarsBack in dem Business und du Bitch bist dismissedGuck wie mich im Ritz Blitzlicht trifftKlick! Klick! Foto machen, neeIch bin Allstar, so wie meine Eau de Marc PiqueWill ein Haus, in MarbellaMein Spiegel meint ich seh' aus wie ein PlayerWas wollt ihr Hater? Wenn ich Goldschmuck willMach ich auf Beziehung mit ´ner vollOperierten Golfclub-MILFHab ein Date im Jacuzzi, mit dem Playmate von JuniIch pump Champagne so wie SchumiIch fick die Chicks wie in Clips von FiftyLeute denken ich wäre jetzt rich wie Swiss BeatzDoch scheiß drauf, ich fick die Models aus dem FernsehenBling, Bl-Bling, damit soll man- [?][Hook - Bushido][Part 3 - Bushido]Du willst jetzt witzig sein? Ich bepiss mich gleich99 Probleme, doch du Bitch bist keinsAlso schreib´s auf Papier, ich bin kein KavalierMir fehlen leider ein paar Manieren, yeahDu triffst uns zu zweit, im Stripclub um dreiHeute Party, Disko auf keinJenseits von Gut und Böse, also geht in DeckungDie zwei Jahre war´n für´n Arsch, sorry Mesut
-[Kay One]Sonny Black und Kay sind wieder daIch genieß mein Leben grad, ich bin Player und ein StarDu verliebst dich so krass KleineJeansjacke, Strasssteine, verdammt ja ich mach ScheineJeder Club-Gig ausverkauft, yesIch geh vollgebräunt aus dem Haus, FreshJenseits von Gut und Böse, bleibe der Boss im RapgeschäftIch hol mir die Kohle, wer rappt perfektWie Kay One der Killer, wir bangen die Chefs[Hook - Bushido]</t>
+          <t>[Hook - Bushido]
+Es geht um Kohle, Rap, Macht und Respekt.(x3)
+Es geht um Kohle, Ko-Ko-Ko-Ko-Kohle
+Und ja, ich hör sie sagen, was wir tun wäre falsch
+Doch euer euer Neid und die Wut lässt uns kalt
+Und ja ich hör sie sagen was wir tun war nicht richtig
+Junge das ist Business! Ko-Ko-Ko-Ko-Kohle
+[Part 1]
+Jenseits von Gut und Böse, hier vom Tellerwäscher
+Zum Millionär, fick dich und deine elf Semester
+Und Willkommen in der Penthousesuite
+Nutte hab ich nicht gesagt deine Pumps ausziehen
+Sonny Black, King Bushido verdammt
+Anis warum gibst du Sido die Hand?
+Es ist nicht euer Problem, ich bin heute im Game
+Ich will ein Beat und zahl 100.000 Euro bei Dre
+Ey Kay, lass uns Deutschrap zerstör´n, kein Feature für Cash
+900 Euro PAPS, Jeans oder Sweat Shirt. Ich trag auf
+Halbe Mille für ein Auto, ich schwör´s dir ich kauf´s
+Downtown Manhattan, Swiss nimmt mich auf, ich will rappen
+Deluxe Box, ich find die Outtakes am Besten
+Ankunft um drei, Frankfurt am Main
+Ich hab keine Autogrammkarten bei, bye
+[Hook - Bushido]
+[Part 2 - Kay One]
+No clouds in mystormes! Wer ist schon Kool Savas?
+Kay One, ich genieß ein Ruf so wie Bruno Mars
+Back in dem Business und du Bitch bist dismissed
+Guck wie mich im Ritz Blitzlicht trifft
+Klick! Klick! Foto machen, nee
+Ich bin Allstar, so wie meineEau de Marc Pique
+Will ein Haus, in Marbella
+Mein Spiegel meint ich seh' aus wie ein Player
+Was wollt ihr Hater? Wenn ich Goldschmuck will
+Mach ich auf Beziehung mit ´ner voll
+Operierten Golfclub-MILF
+Hab ein Date im Jacuzzi, mit dem Playmate von Juni
+Ich pump Champagne so wie Schumi
+Ich fick die Chicks wie in Clips von Fifty
+Leute denken ich wäre jetzt rich wie Swiss Beatz
+Doch scheiß drauf, ich fick die Models aus dem Fernsehen
+Bling, Bl-Bling, damit soll man+ [?]
+[Hook - Bushido]
+[Part 3 - Bushido]
+Du willst jetzt witzig sein? Ich bepiss mich gleich
+99 Probleme, doch du Bitch bist keins
+Also schreib´s auf Papier, ich bin kein Kavalier
+Mir fehlen leider ein paar Manieren, yeah
+Du triffst uns zu zweit, im Stripclub um drei
+Heute Party, Disko auf kein
+Jenseits von Gut und Böse, also geht in Deckung
+Die zwei Jahre war´n für´n Arsch, sorry Mesut
+[Kay One]
+Sonny Black und Kay sind wieder da
+Ich genieß mein Leben grad, ich bin Player und ein Star
+Du verliebst dich so krass Kleine
+Jeansjacke, Strasssteine, verdammt ja ich mach Scheine
+Jeder Club-Gig ausverkauft, yes
+Ich geh vollgebräunt aus dem Haus, Fresh
+Jenseits von Gut und Böse, bleibe der Boss im Rapgeschäft
+Ich hol mir die Kohle, wer rappt perfekt
+Wie Kay One der Killer, wir bangen die Chefs
+[Hook - Bushido]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -734,9 +1046,63 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Part 1]Ich wach auf, doch bleib noch im Bett liegenAuf der Fensterbank Vögel die wegfliegenDie letzten Blätter fallen von den BäumenMir kommt's so vor als würd' ich das hier alles träumenSonnenstrahlen kitzeln mein GesichtDer Ärger von gestern verschwindet wie im NichtsDie letzten Jahre waren nicht grade leichtMein Spiegelbild sagt, Vergiss diese ZeitIch geh raus und atme die LuftUnd spür jeden Herzschlag in der BrustAlles scheint so vertrautAls wär ich zuhaus und ich trag'In mir diesen Stern den ich brauchDie Gedanken sind freiIch fühle mich endlich verstanden und weißIm Prinzip nicht weshalb, alles so kam wie es kamJemand hat mir was Gutes getan[Hook]Das hier wird der erste Tag vom Rest meines LebensGestern war gestern deswegenWird das hier der erste Tag vom Rest meines LebensNie wieder Schmerzen und TränenDas hier wird der erste Tag vom Rest meines LebensGestern war gestern deswegenWird das hier der erste Tag vom Rest meines LebensNie wieder Schmerzen und Tränen
-[Part 2]Und bis zum Rest meines Lebens begleitetMich das Gefühl dass ich nie mehr verzweifel'Leb deine träume, du lebst nur einmalDer Regen vergeht, die Sonne scheint klarIch lauf auf den Wolken, nichts zieht mich runterUnd ich lass sie reden denn ich bin unverwundbarIch geh' grade aus, lauf Junge laufIch seh' mit dem Herzen, die Augen sind taubIch folg meinem Glück, es gibt kein ZurückHier an diesem Ort, wo nichts weiter istIch spür diesen Frieden, und warte auf meine LiebstenKlapp die Flügel auf und lern' fliegenIch bin endlich frei,und spüre diese MenschlichkeitSie kennt keine Grenzen,kennt keinen HassHier an diesem Platz![Hook]Das hier wird der erste Tag vom Rest meines LebensGestern war gestern deswegenWird das hier der erste Tag vom Rest meines LebensNie wieder Schmerzen und TränenDas hier wird der erste Tag vom Rest meines LebensGestern war gestern deswegenWird das hier der erste Tag vom Rest meines LebensNie wieder Schmerzen und Tränen
-[Outro]Das hier wird der erste Tag vom Rest meines LebensGestern war gestern deswegenWird das hier der erste Tag vom Rest meines LebensNie wieder Schmerzen und Tränen</t>
+          <t>[Part 1]
+Ich wach auf, doch bleib noch im Bett liegen
+Auf der Fensterbank Vögel die wegfliegen
+Die letzten Blätter fallen von den Bäumen
+Mir kommt's so vor als würd' ich das hier alles träumen
+Sonnenstrahlen kitzeln mein Gesicht
+Der Ärger von gestern verschwindet wie im Nichts
+Die letzten Jahre waren nicht grade leicht
+Mein Spiegelbild sagt, Vergiss diese Zeit
+Ich geh raus und atme die Luft
+Und spür jeden Herzschlag in der Brust
+Alles scheint so vertraut
+Als wär ich zuhaus und ich trag'
+In mir diesen Stern den ich brauch
+Die Gedanken sind frei
+Ich fühle mich endlich verstanden und weiß
+Im Prinzip nicht weshalb, alles so kam wie es kam
+Jemand hat mir was Gutes getan
+[Hook]
+Das hier wird der erste Tag vom Rest meines Lebens
+Gestern war gestern deswegen
+Wird das hier der erste Tag vom Rest meines Lebens
+Nie wieder Schmerzen und Tränen
+Das hier wird der erste Tag vom Rest meines Lebens
+Gestern war gestern deswegen
+Wird das hier der erste Tag vom Rest meines Lebens
+Nie wieder Schmerzen und Tränen
+[Part 2]
+Und bis zum Rest meines Lebens begleitet
+Mich das Gefühl dass ich nie mehr verzweifel'
+Leb deine träume, du lebst nur einmal
+Der Regen vergeht, die Sonne scheint klar
+Ich lauf auf den Wolken, nichts zieht mich runter
+Und ich lass sie reden denn ich bin unverwundbar
+Ich geh' grade aus, lauf Junge lauf
+Ich seh' mit dem Herzen, die Augen sind taub
+Ich folg meinem Glück, es gibt kein Zurück
+Hier an diesem Ort, wo nichts weiter ist
+Ich spür diesen Frieden, und warte auf meine Liebsten
+Klapp die Flügel auf und lern' fliegen
+Ich bin endlich frei,und spüre diese Menschlichkeit
+Sie kennt keine Grenzen,kennt keinen Hass
+Hier an diesem Platz!
+[Hook]
+Das hier wird der erste Tag vom Rest meines Lebens
+Gestern war gestern deswegen
+Wird das hier der erste Tag vom Rest meines Lebens
+Nie wieder Schmerzen und Tränen
+Das hier wird der erste Tag vom Rest meines Lebens
+Gestern war gestern deswegen
+Wird das hier der erste Tag vom Rest meines Lebens
+Nie wieder Schmerzen und Tränen
+[Outro]
+Das hier wird der erste Tag vom Rest meines Lebens
+Gestern war gestern deswegen
+Wird das hier der erste Tag vom Rest meines Lebens
+Nie wieder Schmerzen und Tränen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -790,9 +1156,76 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Intro: Mailbox]„Ja, du, ich bin's. Ich hab' dich grad nicht auf deinem Handy erreicht. Find' ich auch ganz gut. Ich wollt' dir eigentlich nur sagen, dass es mit uns einfach gelaufen ist. Wir passen nicht zusammen, hör bitte auf mich anzurufen, mir SMSen zu schreiben, du brauchst auch nicht deine Freunde vorbeizuschicken, die ein gutes Wort für dich einlegen. Hör auf mir nachzuspionieren, verstehst du's endlich? Es ist vorbei!“[Hook: J-Luv]Sag mir, bist du jetzt glücklich?Denn ich schlaf' schon seit Tagen nicht mehr wegen dirDenn du nimmst keine RücksichtLängst vergessen, die Tage und Wochen, du hast sie gebrochen Du belügst michUnd ich seh' es klar, weil du alles warstSag nichts und vergiss michSag nichts und vergiss mich, ohh[Part 1: Bushido]Vergiss mich endlich, warum war für dich alles so selbstverständlich?Du bleibst ein Teufel und warst selten menschlich, ja, ich kenn' dichDu warst nicht immer so, denk mal an die guten ZeitenWir zu zweit, wir war'n frei, was wolltest du beweisen?Das sind die schwarzen Tage, das ist der schwarze RegenMir bleibt nichts übrig, außer vor meinem Schlaf zu betenDu warst nicht dieser Engel unter tausend Hur'nIch box' ein Loch durch die Wand und schau' seit Stunden auf die UhrIch werd' dir niemals verzeihen, depressiv durch Streiterei'nUnd das Blut tropft auf das Papier, wenn ich hier schreib'Und ich frag' dich jetzt zum letzen Mal: War's das alles wert?Ich schau' dein Foto an, das Atmen fällt mir schwer
-[Hook: J-Luv]Sag mir, bist du jetzt glücklich?Denn ich schlaf' schon seit Tagen nicht mehr wegen dirDenn du nimmst keine RücksichtLängst vergessen, die Tage und Wochen, du hast sie gebrochen Du belügst michUnd ich seh' es klar, weil du alles warstSag nichts und vergiss michSag nichts und vergiss mich, ohh[Part 2: Bushido]Ich denk' nur noch an Schmerz und Hass, doch ich hab' was gelernt, mein SchatzDass ich nicht jede Schlampe in mein Herz reinlass'Das ist das, was ich mir fest geschwor'n hab', ich trauer' nichtIch lauer' dir nicht auf, du Stück Scheiße bist bedauerlichGib mir nur 'nen Augenblick um tschüss zu sagen, du hast kein'n RespektUnd deshalb kann man von dir nichts erwarten, du bist nur noch DreckGenau aus diesem Grund will ich dich nicht mehr seh'nDu warst mein Mädchen, doch bei dir fließt Gift durch deine Ven'nIch wurd' geblendet durch dein'n so dein falschen CharmeDeine so kalte Art macht dich leider wieder sowas von armJa, das Schicksal hat uns zwei vereint und alles, was mal warIst seit Monaten und Tagen nicht mehr da[Hook: J-Luv]Sag mir, bist du jetzt glücklich?Denn ich schlaf' schon seit Tagen nicht mehr wegen dirDenn du nimmst keine RücksichtLängst vergessen, die Tage und Wochen, du hast sie gebrochen Du belügst michUnd ich seh' es klar, weil du alles warstSag nichts und vergiss michSag nichts und vergiss mich, ohh
-[Bridge]Es macht kein'n SinnMit uns zwei, ich kann nicht mehrEgal, was nun, mach dein DingDenn du bist es nicht mehr wertIch will nicht mehr mit, lass mich alleinIch bin lieber ohne dich als mit dirDenn so bin ich freiDenn so bin ich frei, ohh[Hook: J-Luv]Sag mir, bist du jetzt glücklich?Denn ich schlaf' schon seit Tagen nicht mehr wegen dirDenn du nimmst keine RücksichtLängst vergessen, die Tage und Wochen, du hast sie gebrochen Du belügst michUnd ich seh' es klar, weil du alles warstSag nichts und vergiss michSag nichts und vergiss mich, ohh</t>
+          <t xml:space="preserve">[Intro: Mailbox]
+„Ja, du, ich bin's. Ich hab' dich grad nicht auf deinem Handy erreicht. Find' ich auch ganz gut. Ich wollt' dir eigentlich nur sagen, dass es mit uns einfach gelaufen ist. Wir passen nicht zusammen, hör bitte auf mich anzurufen, mir SMSen zu schreiben, du brauchst auch nicht deine Freunde vorbeizuschicken, die ein gutes Wort für dich einlegen. Hör auf mir nachzuspionieren, verstehst du's endlich? Es ist vorbei!“
+[Hook: J-Luv]
+Sag mir, bist du jetzt glücklich?
+Denn ich schlaf' schon seit Tagen nicht mehr wegen dir
+Denn du nimmst keine Rücksicht
+Längst vergessen, die Tage und Wochen, du hast sie gebrochen Du belügst mich
+Und ich seh' es klar, weil du alles warst
+Sag nichts und vergiss mich
+Sag nichts und vergiss mich, ohh
+[Part 1: Bushido]
+Vergiss mich endlich, warum war für dich alles so selbstverständlich?
+Du bleibst ein Teufel und warst selten menschlich, ja, ich kenn' dich
+Du warst nicht immer so, denk mal an die guten Zeiten
+Wir zu zweit, wir war'n frei, was wolltest du beweisen?
+Das sind die schwarzen Tage, das ist der schwarze Regen
+Mir bleibt nichts übrig, außer vor meinem Schlaf zu beten
+Du warst nicht dieser Engel unter tausend Hur'n
+Ich box' ein Loch durch die Wand und schau' seit Stunden auf die Uhr
+Ich werd' dir niemals verzeihen, depressiv durch Streiterei'n
+Und das Blut tropft auf das Papier, wenn ich hier schreib'
+Und ich frag' dich jetzt zum letzen Mal: War's das alles wert?
+Ich schau' dein Foto an, das Atmen fällt mir schwer
+[Hook: J-Luv]
+Sag mir, bist du jetzt glücklich?
+Denn ich schlaf' schon seit Tagen nicht mehr wegen dir
+Denn du nimmst keine Rücksicht
+Längst vergessen, die Tage und Wochen, du hast sie gebrochen Du belügst mich
+Und ich seh' es klar, weil du alles warst
+Sag nichts und vergiss mich
+Sag nichts und vergiss mich, ohh
+[Part 2: Bushido]
+Ich denk' nur noch an Schmerz und Hass, doch ich hab' was gelernt, mein Schatz
+Dass ich nicht jede Schlampe in mein Herz reinlass'
+Das ist das, was ich mir fest geschwor'n hab', ich trauer' nicht
+Ich lauer' dir nicht auf, du Stück Scheiße bist bedauerlich
+Gib mir nur 'nen Augenblick um tschüss zu sagen, du hast kein'n Respekt
+Und deshalb kann man von dir nichts erwarten, du bist nur noch Dreck
+Genau aus diesem Grund will ich dich nicht mehr seh'n
+Du warst mein Mädchen, doch bei dir fließt Gift durch deine Ven'n
+Ich wurd' geblendet durch dein'n so dein falschen Charme
+Deine so kalte Art macht dich leider wieder sowas von arm
+Ja, das Schicksal hat uns zwei vereint und alles, was mal war
+Ist seit Monaten und Tagen nicht mehr da
+[Hook: J-Luv]
+Sag mir, bist du jetzt glücklich?
+Denn ich schlaf' schon seit Tagen nicht mehr wegen dir
+Denn du nimmst keine Rücksicht
+Längst vergessen, die Tage und Wochen, du hast sie gebrochen Du belügst mich
+Und ich seh' es klar, weil du alles warst
+Sag nichts und vergiss mich
+Sag nichts und vergiss mich, ohh
+[Bridge]
+Es macht kein'n Sinn
+Mit uns zwei, ich kann nicht mehr
+Egal, was nun, mach dein Ding
+Denn du bist es nicht mehr wert
+Ich will nicht mehr mit, lass mich allein
+Ich bin lieber ohne dich als mit dir
+Denn so bin ich frei
+Denn so bin ich frei, ohh
+[Hook: J-Luv]
+Sag mir, bist du jetzt glücklich?
+Denn ich schlaf' schon seit Tagen nicht mehr wegen dir
+Denn du nimmst keine Rücksicht
+Längst vergessen, die Tage und Wochen, du hast sie gebrochen Du belügst mich
+Und ich seh' es klar, weil du alles warst
+Sag nichts und vergiss mich
+Sag nichts und vergiss mich, ohh
+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -846,9 +1279,79 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Intro: Swizz Beatz]Uhh, owww, rightOnce againShowtimeLadies and GentlemanAs we go[Hook: Swizz Beatz]We gon' get it poppin' in this Mo'Fucka (a'ight a'ight)We gon' set it off in this Mo'Fucka (a'ight a'ight)Hands in the air in this Mo'Fucka (a'ight, a'ight)We don't really care in this motherfucker (a'ight a'ight)Get your drinks up in this Mo'Fucka (a'ight a'ight)Smoke that good shit in this Mo'Fucka (a'ight a'ight)Get all your cake in this Mo'FuckaAin't nobody hating in this Mo'Fucka (owww!)[Verse 1: Swizz Beatz]I'm chilling in my Aston Martin with four doorsThe top off, I feel like that bitch fell offNiggas acting sick, well I make you niggas coughPlus I'm riding clean, bitch -- I got them white wallsI'm chilling on a yacht with that billion dollar talkThat billion dollar walk, I got that billion dollar sparkI come from that gritty city up the New YorkYou niggas talking crazy, bet you niggas won't jumpBut your money where your mouth isPut your house or put your keysI'm in this fucking gameAnd I do this shit for realTwo hundred and fifty million sold track recordYou niggas talking crazy, you ain't got a hot record, fresh
-[Hook]We gon' get it poppin' in this Mo'Fucka (a'ight a'ight)We gon' set it off in this Mo'Fucka (a'ight a'ight)Hands in the air in this Mo'Fucka (a'ight, a'ight)We don't really care in this motherfucker (a'ight a'ight)Get your drinks up in this Mo'Fucka (a'ight a'ight)Smoke that good shit in this Mo'Fucka (a'ight a'ight)Get all your cake in this Mo'FuckaAin't nobody hating in this Mo'Fucka (owww!)[Verse 2: Bushido]Deutsch-Rap-King und es Kreuzberg klingtSwizzie sein Beat fickt dein Boy-Band-DingEs stimmt, das hier wird kein Spaß für euch KinderBevor ich kapitulier, begrabt mich für immerSnare Drum ich rap, wer kann mich jetztAufhalten, ich stürm' mit der Gang das GeschäftBlack, Sonny, mein Denkmal stehtIch will mit deiner Schwester im BangBus dreh'nOkay, siehst du wie der Hase hier läuftDer Araber auf Deutsch definiert hier das StraßendingNeu, du Toy willst ein ganz Großer werdenSpring, wenn wir Banknoten werfen[Hook]We gon' get it poppin' in this Mo'Fucka (a'ight a'ight)We gon' set it off in this Mo'Fucka (a'ight a'ight)Hands in the air in this Mo'Fucka (a'ight, a'ight)We don't really care in this motherfucker (a'ight a'ight)Get your drinks up in this Mo'Fucka (a'ight a'ight)Smoke that good shit in this Mo'Fucka (a'ight a'ight)Get all your cake in this Mo'FuckaAin't nobody hating in this Mo'Fucka (owww!)
-[Verse 3: Bushido]Bester Live-Act, doch die Presse schreibt "Dreck"Du hast kein Geld, dann verwette dein' SwagDeine Kette bleibt BlechGuck ich stapel hier in Säcken mein CashAuf die Sieger-Treppe steigt BlackIch war schon als Kind provokantDas hier nennt man intolerantIch gegen die Welt, ich fick jeden und selbstDeine beste Freundin sagt: "Deine Zähne sind gelb"Ich hab' es euch prophezeitKeiner von euch kriegt was gbeackenDie Jacke von Prada, die Jeans sind verwaschenNein, ich werde nie Volkswagen fahrenKomm hilf mir die Goldbarren stapeln[Hook]We gon' get it poppin' in this Mo'Fucka (a'ight a'ight)We gon' set it off in this Mo'Fucka (a'ight a'ight)Hands in the air in this Mo'Fucka (a'ight, a'ight)We don't really care in this motherfucker (a'ight a'ight)Get your drinks up in this Mo'Fucka (a'ight a'ight)Smoke that good shit in this Mo'Fucka (a'ight a'ight)Get all your cake in this Mo'FuckaAin't nobody hating in this Mo'Fucka (owww!)</t>
+          <t>[Intro: Swizz Beatz]
+Uhh, owww, right
+Once again
+Showtime
+Ladies and Gentleman
+As we go
+[Hook: Swizz Beatz]
+We gon' get it poppin' in this Mo'Fucka (a'ight a'ight)
+We gon' set it off in this Mo'Fucka (a'ight a'ight)
+Hands in the air in this Mo'Fucka (a'ight, a'ight)
+We don't really care in this motherfucker (a'ight a'ight)
+Get your drinks up in this Mo'Fucka (a'ight a'ight)
+Smoke that good shit in this Mo'Fucka (a'ight a'ight)
+Get all your cake in this Mo'Fucka
+Ain't nobody hating in this Mo'Fucka (owww!)
+[Verse 1: Swizz Beatz]
+I'm chilling in my Aston Martin with four doorsThe top off, I feel like that bitch fell offNiggas acting sick, well I make you niggas coughPlus I'm riding clean, bitch -- I got them white wallsI'm chilling on a yacht with that billion dollar talkThat billion dollar walk, I got that billion dollar sparkI come from that gritty city up the New YorkYou niggas talking crazy, bet you niggas won't jumpBut your money where your mouth isPut your house or put your keysI'm in this fucking gameAnd I do this shit for realTwo hundred and fifty million sold track recordYou niggas talking crazy, you ain't got a hot record, fresh
+[Hook]
+We gon' get it poppin' in this Mo'Fucka (a'ight a'ight)
+We gon' set it off in this Mo'Fucka (a'ight a'ight)
+Hands in the air in this Mo'Fucka (a'ight, a'ight)
+We don't really care in this motherfucker (a'ight a'ight)
+Get your drinks up in this Mo'Fucka (a'ight a'ight)
+Smoke that good shit in this Mo'Fucka (a'ight a'ight)
+Get all your cake in this Mo'Fucka
+Ain't nobody hating in this Mo'Fucka (owww!)
+[Verse 2: Bushido]
+Deutsch-Rap-King und es Kreuzberg klingt
+Swizzie sein Beat fickt dein Boy-Band-Ding
+Es stimmt, das hier wird kein Spaß für euch Kinder
+Bevor ich kapitulier, begrabt mich für immer
+Snare Drum ich rap, wer kann mich jetzt
+Aufhalten, ich stürm' mit der Gang das Geschäft
+Black, Sonny, mein Denkmal steht
+Ich will mit deiner Schwester im BangBus dreh'n
+Okay, siehst du wie der Hase hier läuft
+Der Araber auf Deutsch definiert hier das Straßending
+Neu, du Toy willst ein ganz Großer werden
+Spring, wenn wir Banknoten werfen
+[Hook]
+We gon' get it poppin' in this Mo'Fucka (a'ight a'ight)
+We gon' set it off in this Mo'Fucka (a'ight a'ight)
+Hands in the air in this Mo'Fucka (a'ight, a'ight)
+We don't really care in this motherfucker (a'ight a'ight)
+Get your drinks up in this Mo'Fucka (a'ight a'ight)
+Smoke that good shit in this Mo'Fucka (a'ight a'ight)
+Get all your cake in this Mo'Fucka
+Ain't nobody hating in this Mo'Fucka (owww!)
+[Verse 3: Bushido]
+Bester Live-Act, doch die Presse schreibt "Dreck"
+Du hast kein Geld, dann verwette dein' Swag
+Deine Kette bleibt Blech
+Guck ich stapel hier in Säcken mein Cash
+Auf die Sieger-
+Treppe steigt Black
+Ich war schon als Kind provokant
+Das hier nennt man intolerant
+Ich gegen die Welt, ich fick jeden und selbst
+Deine beste Freundin sagt: "Deine Zähne sind gelb"
+Ich hab' es euch prophezeit
+Keiner von euch kriegt was gbeacken
+Die Jacke von Prada, die Jeans sind verwaschen
+Nein, ich werde nie Volkswagen fahren
+Komm hilf mir die Goldbarren stapeln
+[Hook]
+We gon' get it poppin' in this Mo'Fucka (a'ight a'ight)
+We gon' set it off in this Mo'Fucka (a'ight a'ight)
+Hands in the air in this Mo'Fucka (a'ight, a'ight)
+We don't really care in this motherfucker (a'ight a'ight)
+Get your drinks up in this Mo'Fucka (a'ight a'ight)
+Smoke that good shit in this Mo'Fucka (a'ight a'ight)
+Get all your cake in this Mo'Fucka
+Ain't nobody hating in this Mo'Fucka (owww!)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -902,9 +1405,83 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Es kann so schnell vorbei sein, nur Gott allein weißWann wir gehen, wann is' die Zeit reif?Und es schmerzt, wir könn's nicht ertragenDen Liebsten plötzlich leb' wohl zu sagenWie gern will man für immer jung seinWir gehen, doch die Erinnerung bleibtDie schönsten Momente, wie wir gelacht habenLieber Gott lass mich nicht diese Last tragenEs tut so weh, wenn ich zurück denk'Und ich merk', dass das Leben mir nichts schenktUnd ich nichts kenn außer dem LeidWir knien vor dem Sarg, sind traurig und wein'So viele Rosen, so viele KerzenSo viele hier die nicht loslassen werdenDoch du, mein Freund, wirst für immer ein Teil seinWir vermissen dich so sehr, Bye bye[Hook: J-Luv]Glaub mir der Schmerzt frisst mich aufUnd so nimmt das Leben seinen LaufDoch du bist UnsterblichFür mich UnentbehrlichDu wusstest genauWie sehr ich dich brauchWie sehr ich dich brauch
-[Part 2: Bushido]Ich schau' jetzt dein Bild an, ich halt's in der HandDie Tränen ich kann sie nicht halten verdammtIch hör wie du sprichst, hör wie du lachstMein Herz, nur dir gehört dieser PlatzStolz, Güte, Ehre und MutFloss bei dir durch die Venen im BlutIch weiß noch genau, du meintest : "Pass auf"Denn heute geht jeder mit Neid aus dem HausIch dank' dir so sehr und dank auch dem HerrnIch durfte diesen Mann kennen lern'Doch ich möcht' nichts verstehenDenn er is' gegangen und ich merk', das plötzlich wer fehltEs sind Narben, die langsam verheilenJa ich weiß ich war anfangs alleinDoch ich denk jetzt an morgen, und nicht mehr an gesternUnd leb jeden Tag als wär's mein letzter![Hook: J-Luv]Glaub mir der Schmerz frisst mich aufUnd so nimmt das Leben seinen LaufDoch du bist UnsterblichFür mich UnentbehrlichDu wusstest genauWie sehr ich dich brauchWie sehr ich dich brauch
-[Bridge: Bushido]Ich konnte mich nicht mal verabschiedenDu bist gegangen ohne ein WortUnd all die MenschenDie wegen dir wach liegenMüssen begreifen, du bist jetzt fort!Ich konnte mich nicht mal verabschiedenDu bist gegangen ohne ein WortUnd all die MenschenDie wegen dir wach liegenMüssen begreifen, du bist jetzt fort![Hook: J-Luv]Glaub mir der Schmerz frisst mich aufUnd so nimmt das Leben seinen LaufDoch du bist UnsterblichFür mich UnentbehrlichDu wusstest genauWie sehr ich dich brauchWie sehr ich dich brauch[Outro: J-Luv]Glaub mir der Schmerz frisst mich aufUnd so nimmt das Leben seinen LaufDoch du bist UnsterblichFür mich UnentbehrlichDu wusstest genauWie sehr ich dich brauchWie sehr ich dich brauch</t>
+          <t>[Part 1: Bushido]
+Es kann so schnell vorbei sein, nur Gott allein weiß
+Wann wir gehen, wann is' die Zeit reif?
+Und es schmerzt, wir könn's nicht ertragen
+Den Liebsten plötzlich leb' wohl zu sagen
+Wie gern will man für immer jung sein
+Wir gehen, doch die Erinnerung bleibt
+Die schönsten Momente, wie wir gelacht haben
+Lieber Gott lass mich nicht diese Last tragen
+Es tut so weh, wenn ich zurück denk'
+Und ich merk', dass das Leben mir nichts schenkt
+Und ich nichts kenn außer dem Leid
+Wir knien vor dem Sarg, sind traurig und wein'
+So viele Rosen, so viele Kerzen
+So viele hier die nicht loslassen werden
+Doch du, mein Freund, wirst für immer ein Teil sein
+Wir vermissen dich so sehr, Bye bye
+[Hook: J-Luv]
+Glaub mir der Schmerzt frisst mich auf
+Und so nimmt das Leben seinen Lauf
+Doch du bist Unsterblich
+Für mich Unentbehrlich
+Du wusstest genau
+Wie sehr ich dich brauch
+Wie sehr ich dich brauch
+[Part 2: Bushido]
+Ich schau' jetzt dein Bild an, ich halt's in der Hand
+Die Tränen ich kann sie nicht halten verdammt
+Ich hör wie du sprichst, hör wie du lachst
+Mein Herz, nur dir gehört dieser Platz
+Stolz, Güte, Ehre und Mut
+Floss bei dir durch die Venen im Blut
+Ich weiß noch genau, du meintest : "Pass auf"
+Denn heute geht jeder mit Neid aus dem Haus
+Ich dank' dir so sehr und dank auch dem Herrn
+Ich durfte diesen Mann kennen lern'
+Doch ich möcht' nichts verstehen
+Denn er is' gegangen und ich merk', das plötzlich wer fehlt
+Es sind Narben, die langsam verheilen
+Ja ich weiß ich war anfangs allein
+Doch ich denk jetzt an morgen, und nicht mehr an gestern
+Und leb jeden Tag als wär's mein letzter!
+[Hook: J-Luv]
+Glaub mir der Schmerz frisst mich auf
+Und so nimmt das Leben seinen Lauf
+Doch du bist Unsterblich
+Für mich Unentbehrlich
+Du wusstest genau
+Wie sehr ich dich brauch
+Wie sehr ich dich brauch
+[Bridge: Bushido]
+Ich konnte mich nicht mal verabschieden
+Du bist gegangen ohne ein Wort
+Und all die Menschen
+Die wegen dir wach liegen
+Müssen begreifen, du bist jetzt fort!
+Ich konnte mich nicht mal verabschieden
+Du bist gegangen ohne ein Wort
+Und all die Menschen
+Die wegen dir wach liegen
+Müssen begreifen, du bist jetzt fort!
+[Hook: J-Luv]
+Glaub mir der Schmerz frisst mich auf
+Und so nimmt das Leben seinen Lauf
+Doch du bist Unsterblich
+Für mich Unentbehrlich
+Du wusstest genau
+Wie sehr ich dich brauch
+Wie sehr ich dich brauch
+[Outro: J-Luv]
+Glaub mir der Schmerz frisst mich auf
+Und so nimmt das Leben seinen Lauf
+Doch du bist Unsterblich
+Für mich Unentbehrlich
+Du wusstest genau
+Wie sehr ich dich brauch
+Wie sehr ich dich brauch</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -958,9 +1535,85 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Hook]Es ist vorbei vorbei vorbei und endgültig ausIch weiß du wolltest das so, doch jetzt will ich das auchWir hatten gute Zeiten und auch die schlechten ZeitenUnd jede scheiß Erfahrung lässt mich reifenEs ist vorbei vorbei vorbei und endgültig ausIch weiß du wolltest das so, doch jetzt will ich das auchWir hatten gute Zeiten und auch die schlechten ZeitenDas sind die schlechten Zeiten, das die schlechten Zeiten[Part 1]Kannst du die noch an unser Anfangszeit erinnernDein ex-freund du warst so gelangweilt von dem SpinnerLiebe wird zum Alltag, du brauchtest nichts mehr sagenDeine schönen braune Augen haben dich verratenIch habe die Chance ergriffen, nein ich hab sofort begriffenDu bist anders und ich wollt es wissenIch habe mir fest geschworen nie wieder so zu liebenWie bei meiner ex, wegen ihr war ich so am frierenIch bin kaputt gegangen ich hab das lieben verlerntIch wollt zurück doch bei mir stand die Magie in den SternenDann hab ich dich gesehen, ich hab gewusst ich lass dich nicht mehr gehnIch war auf den sicheren wegWir haben gelacht und geweint klar gab es mal HassUnd auch streit doch bei uns hat es gepasstDenn wir 2 haben uns die liebe geschworenUnd plötzlich hab ich sie wieder verloren (wieder verloren)
-[Hook]Es ist vorbei vorbei vorbei und endgültig ausIch weiß du wolltest das so, doch jetzt will ich das auchWir hatten gute Zeiten und auch die schlechten ZeitenUnd jede scheiß Erfahrung lässt mich reifenEs ist vorbei vorbei vorbei und endgültig ausIch weiß du wolltest das so, doch jetzt will ich das auchWir hatten gute Zeiten und auch die schlechten ZeitenDas sind die schlechten Zeiten, das die schlechten Zeiten[Part 2]Das sind die schlechten Zeiten, mir fällt es schwer zu schlafenUnter diesem Berg voller Hass liegt mein Herz begrabenDie Geduld ist weg, ich muss lernen zu warten, wozu liebenIch hab bis heute nur den Schmerz erfahrenDu warst das grösste Geschenk was ich bekamDoch dein blick prophezeite, das Ende ist schon nahIch war dein grösste Held, hab auf dich aufgepasstUnd wie oft hab ich dich gefragt  "Engel, brauchst du was"Hör doch auf mein Schatz wir machen uns was vorHeute ist alles anders wir haben uns verlorenWir machen uns kaputt nein du machst mich kaputtUnd selbst wenn ich damals recht hatte hab ichs geschlucktUnd ich weiß das du an mich denkstKein Augenblick mit mir willst du missenAlso kämpf nicht mehr für uns du bist mir einfach soFremd diese Story hier hat kein happy end
-[Hook]Es ist vorbei vorbei vorbei und endgültig ausIch weiß du wolltest das so, doch jetzt will ich das auchWir hatten gute Zeiten und auch die schlechten ZeitenUnd jede scheiß Erfahrung lässt mich reifenEs ist vorbei vorbei vorbei und endgültig ausIch weiß du wolltest das so, doch jetzt will ich das auchWir hatten gute Zeiten und auch die schlechten ZeitenDas sind die schlechten Zeiten, das die schlechten Zeiten[Part 3]Es läuft nicht immer so wie man sich's wünschtDenn manchmal macht die liebe einen blindMan wünscht sich so sehr das es für immer hältOhne dich leb ich in einer stillen WeltMir fällt das lachen schwer jeder Tag ist grauUnd mein Seelenfrieden ich warte draufDu hastest mir versprochen verdammtUnd dank dir bin ich ein gebrochener Mann[Hook]Es ist vorbei vorbei vorbei und endgültig ausIch weiß du wolltest das so, doch jetzt will ich das auchWir hatten gute Zeiten und auch die schlechten ZeitenUnd jede scheiß Erfahrung lässt mich reifenEs ist vorbei vorbei vorbei und endgültig ausIch weiß du wolltest das so, doch jetzt will ich das auchWir hatten gute Zeiten und auch die schlechten ZeitenDas sind die schlechten Zeiten, das die schlechten Zeiten</t>
+          <t>[Hook]
+Es ist vorbei vorbei vorbei und endgültig aus
+Ich weiß du wolltest das so, doch jetzt will ich das auch
+Wir hatten gute Zeiten und auch die schlechten Zeiten
+Und jede scheiß Erfahrung lässt mich reifen
+Es ist vorbei vorbei vorbei und endgültig aus
+Ich weiß du wolltest das so, doch jetzt will ich das auch
+Wir hatten gute Zeiten und auch die schlechten Zeiten
+Das sind die schlechten Zeiten, das die schlechten Zeiten
+[Part 1]
+Kannst du die noch an unser Anfangszeit erinnern
+Dein ex-freund du warst so gelangweilt von dem Spinner
+Liebe wird zum Alltag, du brauchtest nichts mehr sagen
+Deine schönen braune Augen haben dich verraten
+Ich habe die Chance ergriffen, nein ich hab sofort begriffen
+Du bist anders und ich wollt es wissen
+Ich habe mir fest geschworen nie wieder so zu lieben
+Wie bei meiner ex, wegen ihr war ich so am frieren
+Ich bin kaputt gegangen ich hab das lieben verlernt
+Ich wollt zurück doch bei mir stand die Magie in den Sternen
+Dann hab ich dich gesehen, ich hab gewusst ich lass dich nicht mehr gehn
+Ich war auf den sicheren weg
+Wir haben gelacht und geweint klar gab es mal Hass
+Und auch streit doch bei uns hat es gepasst
+Denn wir 2 haben uns die liebe geschworen
+Und plötzlich hab ich sie wieder verloren (wieder verloren)
+[Hook]
+Es ist vorbei vorbei vorbei und endgültig aus
+Ich weiß du wolltest das so, doch jetzt will ich das auch
+Wir hatten gute Zeiten und auch die schlechten Zeiten
+Und jede scheiß Erfahrung lässt mich reifen
+Es ist vorbei vorbei vorbei und endgültig aus
+Ich weiß du wolltest das so, doch jetzt will ich das auch
+Wir hatten gute Zeiten und auch die schlechten Zeiten
+Das sind die schlechten Zeiten, das die schlechten Zeiten
+[Part 2]
+Das sind die schlechten Zeiten, mir fällt es schwer zu schlafen
+Unter diesem Berg voller Hass liegt mein Herz begraben
+Die Geduld ist weg, ich muss lernen zu warten, wozu lieben
+Ich hab bis heute nur den Schmerz erfahren
+Du warst das grösste Geschenk was ich bekam
+Doch dein blick prophezeite, das Ende ist schon nah
+Ich war dein grösste Held, hab auf dich aufgepasst
+Und wie oft hab ich dich gefragt "Engel, brauchst du was"
+Hör doch auf mein Schatz wir machen uns was vor
+Heute ist alles anders wir haben uns verloren
+Wir machen uns kaputt nein du machst mich kaputt
+Und selbst wenn ich damals recht hatte hab ichs geschluckt
+Und ich weiß das du an mich denkst
+Kein Augenblick mit mir willst du missen
+Also kämpf nicht mehr für uns du bist mir einfach so
+Fremd diese Story hier hat kein happy end
+[Hook]
+Es ist vorbei vorbei vorbei und endgültig aus
+Ich weiß du wolltest das so, doch jetzt will ich das auch
+Wir hatten gute Zeiten und auch die schlechten Zeiten
+Und jede scheiß Erfahrung lässt mich reifen
+Es ist vorbei vorbei vorbei und endgültig aus
+Ich weiß du wolltest das so, doch jetzt will ich das auch
+Wir hatten gute Zeiten und auch die schlechten Zeiten
+Das sind die schlechten Zeiten, das die schlechten Zeiten
+[Part 3]
+Es läuft nicht immer so wie man sich's wünscht
+Denn manchmal macht die liebe einen blind
+Man wünscht sich so sehr das es für immer hält
+Ohne dich leb ich in einer stillen Welt
+Mir fällt das lachen schwer jeder Tag ist grau
+Und mein Seelenfrieden ich warte drauf
+Du hastest mir versprochen verdammt
+Und dank dir bin ich ein gebrochener Mann
+[Hook]
+Es ist vorbei vorbei vorbei und endgültig aus
+Ich weiß du wolltest das so, doch jetzt will ich das auch
+Wir hatten gute Zeiten und auch die schlechten Zeiten
+Und jede scheiß Erfahrung lässt mich reifen
+Es ist vorbei vorbei vorbei und endgültig aus
+Ich weiß du wolltest das so, doch jetzt will ich das auch
+Wir hatten gute Zeiten und auch die schlechten Zeiten
+Das sind die schlechten Zeiten, das die schlechten Zeiten</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1014,9 +1667,45 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Intro: Booba]Hey !92izi dans le bunkerBushido, B2O100-8 ZooGear ![Strophe 1: Booba]Algérien, ke-Tur, Albanais, SénégalaisManie la langue de Voltaire, j'suis connu, communautaireCornes et auréoles somnolent au-dessus de nos têtesVeulent tremper nos plumes dans l'formol, refusent nos textesOn persévère : pour nous quand c'est rouge, c'est vertDénigré, immigré de pères et mèresJ'fais mes dièses à ma sauce, stylo et flingue à ma droiteAnge du mal à ma gauche, Neuf-Deux guérilleros"L'Union fait la Force" dit le drapeau haïtienLe swag est américain, le négro est parisienPeau de macaque ne craint pas les coups de matraqueViens avec arme nuclé-izère si tu m'attaques[Refrain: Bushido]Die Art wie wir reden, wie wir uns bewegenUnsere scheiß Probleme regelnDu passt nicht in unsere GegendSieh es ein du fällst auf -klick klick-Geld raus !Verdammt ich sagte Geld raus !-klick klick-Und jetzt lauf !
-[Strophe 2: Bushido]Das Leben ist hier selbst mit deutschem Pass nicht einfachWas ich über Nacht erreicht habGab meinen Brüdern Hoffnung doch viele sind im Knast gescheitertGastarbeiter, GroßfamilienHabens nicht geschafft sich zu integrierenUnd sind jetzt mit Koks am dealenWas denkst du was uns unsere Zukunft bringt?Deutschland tut mir gut bestimmt, doch ich muss mit ansehnWie mein Heimatland im Blut versinktTraurig anzusehn doch die Kehrseiten der MedailleSind Politiker mit Dankesreden, man kann eben keinem trauenMein Bezirk hast du hier Lust vorbeizuschauen ?!Die Jugend fühlt sich ausgegrenzt und Merkel gibt uns einfach aufScheiß mal drauf!Genau deshalb wünsch ich jedem ohne AbschlussDass er ne Millionen macht und nie wieder in den Knast mussDieser Ascheregen färbt die Straßen grau-schwarzIch glaub, dass ich observiert werde also aufs GasUnd eure Regeln ich verletze sie grad Bushido, BoobaMorgen wird ein besserer Tag[Refrain: Bushido]Die Art wie wir reden, wie wir uns bewegenUnsere scheiß Probleme regelnDu passt nicht in unsere GegendSieh es ein du fällst auf -klick klick-Geld raus !Verdammt ich sagte Geld raus !-klick klick-Und jetzt lauf !
-[Outro: Booba]BushidoB2OKlick Klick</t>
+          <t>[Intro: Booba]
+Hey !
+92izi dans le bunker
+Bushido, B2O
+100-8 Zoo
+Gear !
+[Strophe 1: Booba]
+Algérien, ke-Tur, Albanais, Sénégalais
+Manie la langue de Voltaire, j'suis connu, communautaire
+Cornes et auréoles somnolent au-dessus de nos têtes
+Veulent tremper nos plumes dans l'formol, refusent nos textes
+On persévère : pour nous quand c'est rouge, c'est vert
+Dénigré, immigré de pères et mères
+J'fais mes dièses à ma sauce, stylo et flingue à ma droite
+Ange du mal à ma gauche, Neuf-Deux guérilleros
+"L'Union fait la Force" dit le drapeau haïtien
+Le swag est américain, le négro est parisien
+Peau de macaque ne craint pas les coups de matraque
+Viens avec arme nuclé-izère si tu m'attaques
+[Refrain: Bushido]Die Art wie wir reden, wie wir uns bewegenUnsere scheiß Probleme regelnDu passt nicht in unsere GegendSieh es ein du fällst auf -klick klick-Geld raus !Verdammt ich sagte Geld raus !-klick klick-Und jetzt lauf !
+[Strophe 2: Bushido]
+Das Leben ist hier selbst mit deutschem Pass nicht einfach
+Was ich über Nacht erreicht habGab meinen Brüdern Hoffnung doch viele sind im Knast gescheitert
+Gastarbeiter, GroßfamilienHabens nicht geschafft sich zu integrierenUnd sind jetzt mit Koks am dealen
+Was denkst du was uns unsere Zukunft bringt?
+Deutschland tut mir gut bestimmt, doch ich muss mit ansehnWie mein Heimatland im Blut versinkt
+Traurig anzusehn doch die Kehrseiten der MedailleSind Politiker mit Dankesreden, man kann eben keinem trauen
+Mein Bezirk hast du hier Lust vorbeizuschauen ?!
+Die Jugend fühlt sich ausgegrenzt und Merkel gibt uns einfach aufScheiß mal drauf!
+Genau deshalb wünsch ich jedem ohne AbschlussDass er ne Millionen macht und nie wieder in den Knast muss
+Dieser Ascheregen färbt die Straßen grau-schwarz
+Ich glaub, dass ich observiert werde also aufs Gas
+Und eure Regeln ich verletze sie grad Bushido, Booba
+Morgen wird ein besserer Tag
+[Refrain: Bushido]Die Art wie wir reden, wie wir uns bewegenUnsere scheiß Probleme regelnDu passt nicht in unsere GegendSieh es ein du fällst auf -klick klick-Geld raus !Verdammt ich sagte Geld raus !-klick klick-Und jetzt lauf !
+[Outro: Booba]
+Bushido
+B2O
+Klick Klick</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1070,8 +1759,49 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Get the flowGet the flow[Part 1]Es kommt mir noch wie gestern vor die ersten Beats im KassettendeckDamals noch Picaldi Jeans Silberketten TrendIch war der erst hier der Eastcoast gehört hatWeil seit Tag 1 dieser Preemo zerstört hatIch liebe die Streets so wieEPMD, Big L, Mobb Deep, DrtcEs lief hoch und runter auf dem WalkmanDie Platten stehen da wo heute meine alte Cordon-Sport hängtMit sechzehn hatt' ich zwei 12 10erDie ersten Tapes und Mike hieß VaderDie ersten Jams von Kreuzberg bis MitteAraber, Türken, B Boys in der CliqueIm Bauhaus geklaut zweihundert DosenUnd selbst das aller erste Mic war gestohlenGangster so wie die Straßen von BerlinHier ist ActionIch leb für Hip Hop so wie Maxim[Hook][Scratched!] Get the FlowBut almost hurt me
-[Part 2]Das erste Mal in der Juice und der WhickedDie ersten Gigs im Zug ohne TicketIch hatte ne Vision wie mach ich ne MillionUnd wird die Aggro Berlin Sache sich hier lohntSido, Bushido, B-Tight YeahAnsage Nummer 1 Tour weißt du noch Fler?Splash! Der aller erste HypeDeutschland hat mich geliebt vor allem meinen StyleDer Sound hier ist Brooklyn, Bronx und ParisMit einer kleinen Prise Beton aus BerlinIch war schon als Kind auf Geld ausDoch warum heißt erfolg für euch SelloutIch hab das Business gehasstDer erfolg kam nicht über NachtUnd Rap hat mich nicht immer glücklich gemachtGangster ich hab es tief in mir drinIch bin für die Musik hier bestimmt?Preemo![Hook][Scratched!] Get the FlowBut almost hurt me</t>
+          <t>Get the flow
+Get the flow
+[Part 1]
+Es kommt mir noch wie gestern vor die ersten Beats im Kassettendeck
+Damals noch Picaldi Jeans Silberketten Trend
+Ich war der erst hier der Eastcoast gehört hat
+Weil seit Tag 1 dieser Preemo zerstört hat
+Ich liebe die Streets so wieEPMD, Big L, Mobb Deep, Drtc
+Es lief hoch und runter auf dem Walkman
+Die Platten stehen da wo heute meine alte Cordon-Sport hängt
+Mit sechzehn hatt' ich zwei12 10er
+Die ersten Tapes und Mike hieß Vader
+Die ersten Jams von Kreuzberg bis Mitte
+Araber, Türken, B Boys in der Clique
+Im Bauhaus geklaut zweihundert Dosen
+Und selbst das aller erste Mic war gestohlen
+Gangster so wie die Straßen von Berlin
+Hier ist Action
+Ich leb für Hip Hop so wie Maxim
+[Hook]
+[Scratched!] Get the Flow
+But almost hurt me
+[Part 2]
+Das erste Mal in der Juice und der Whicked
+Die ersten Gigs im Zug ohne Ticket
+Ich hatte ne Vision wie mach ich ne Million
+Und wird die Aggro Berlin Sache sich hier lohnt
+Sido, Bushido, B-Tight YeahAnsage Nummer 1 Tour weißt du noch Fler?
+Splash! Der aller erste Hype
+Deutschland hat mich geliebt vor allem meinen Style
+Der Sound hier ist Brooklyn, Bronx und Paris
+Mit einer kleinen Prise Beton aus Berlin
+Ich war schon als Kind auf Geld aus
+Doch warum heißt erfolg für euch Sellout
+Ich hab das Business gehasst
+Der erfolg kam nicht über Nacht
+Und Rap hat mich nicht immer glücklich gemacht
+Gangster ich hab es tief in mir drin
+Ich bin für die Musik hier bestimmt?
+Preemo!
+[Hook]
+[Scratched!] Get the Flow
+But almost hurt me</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1125,9 +1855,79 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Part 1]Wärst du noch da wenn ich nicht mehr dieser Rapper wär?Würdest du dann noch sagen ich bin ein netter Kerl?Ja,wenn ich raus gehen würde und mich keiner kenntUnd an der Wohnzimmerwand kein Preis mehr hängtWenn ich kein Geld mehr hätte, um gut zu essenFür die Geschenke, sag würdest du noch lächeln?Und ich wieder in die BVG steigWeil mein Geld nicht mehr für den Mercedes ausreichtWenn sich keine Platte mehr verkaufen würdeUnd ich nichts mehr hätte - außer WürdeWärst du dann noch da, um mich aufzufangWenn kein Arsch mehr fragt nach 'nem Autogramm?Wenn sie mich hassen würden, aus irgendeinem GrundHätt' ich ihn dann noch frei diesen einen Wunsch?Wenn ich ein niemand wär', würde es sich zeigenWahre Liebe erfährst du erst in schlechten Zeiten...[Hook]Wärst du immer noch da?Wärst du immer noch hier?Selbst wenn ich mal alles verlier?Bist du da, wenn mich keiner mehr hier kennt?Oder steh ich ganz allein hier und kämpf?Wärst du immer noch da?Wärst du immer noch hier?Selbst wenn ich mal alles verlier?Bist du da, wenn mich keiner mehr hier kennt?Oder steh ich ganz allein hier und kämpf?
-[Part 2]Wärst du noch da, wenn ich keine Fans mehr habUnd die Malediven tausch gegen Campingplatz?Kein Shoppen mehr in all den BoutiquenTrägst du sie nach Hause, vom Aldi die Tüten?Würdest du noch da sein, wenn ich dir nichts bieten könnteAußer meiner Liebe, wär das unser Ende?Keine Platin American Express mehrSag mir, ob ich für dich dann immer noch perfekt wär'?Würden wir dann immer noch so lachen?Ich mein' vom Herzen, nie mehr erste KlasseWieder ganz normal aufsteh'n um siebenWieder auf die Baustelle, raus geh'n und frierenWürdest du dann noch nachts für mich kochen?Oder wär unsere Liebe wie ein Glas dran zerbrochenWenn ich ein Niemand wär', würde es sich zeigenWahre Liebe erfährst du erst in schlechten Zeiten...[Hook]Wärst du immer noch da?Wärst du immer noch hier?Selbst wenn ich mal alles verlier?Bist du da, wenn mich keiner mehr hier kennt?Oder steh ich ganz allein hier und kämpf?Wärst du immer noch da?Wärst du immer noch hier?Selbst wenn ich mal alles verlier?Bist du da, wenn mich keiner mehr hier kennt?Oder steh ich ganz allein hier und kämpf?
-[Part 3]Irgendwann sind die schönen Tage gezähltUnd du merkst wie die Jahre vergehnWas bedeutet Glück?Und was bedeutet lieben?Wann ist man zufrieden?Schau mir in die Augen, sie werden sich nicht ändernSchau mit deinem Herzen und du erkennst dannDer größte Besitz eines Menschen ist nicht sein BesitzSondern wie er dich liebt und beschützt[Hook]Wärst du immer noch da?Wärst du immer noch hier?Selbst wenn ich mal alles verlier?Bist du da, wenn mich keiner mehr hier kennt?Oder steh ich ganz allein hier und kämpf?Wärst du immer noch da?Wärst du immer noch hier?Selbst wenn ich mal alles verlier?Bist du da, wenn mich keiner mehr hier kennt?Oder steh ich ganz allein hier und kämpf?</t>
+          <t>[Part 1]
+Wärst du noch da wenn ich nicht mehr dieser Rapper wär?
+Würdest du dann noch sagen ich bin ein netter Kerl?
+Ja,wenn ich raus gehen würde und mich keiner kenntUnd an der Wohnzimmerwand kein Preis mehr hängtWenn ich kein Geld mehr hätte, um gut zu essenFür die Geschenke, sag würdest du noch lächeln?
+Und ich wieder in die BVG steigWeil mein Geld nicht mehr für den Mercedes ausreicht
+Wenn sich keine Platte mehr verkaufen würde
+Und ich nichts mehr hätte - außer Würde
+Wärst du dann noch da, um mich aufzufang
+Wenn kein Arsch mehr fragt nach 'nem Autogramm?
+Wenn sie mich hassen würden, aus irgendeinem Grund
+Hätt' ich ihn dann noch frei diesen einen Wunsch?
+Wenn ich ein niemand wär', würde es sich zeigen
+Wahre Liebe erfährst du erst in schlechten Zeiten...
+[Hook]
+Wärst du immer noch da?
+Wärst du immer noch hier?
+Selbst wenn ich mal alles verlier?
+Bist du da, wenn mich keiner mehr hier kennt?
+Oder steh ich ganz allein hier und kämpf?
+Wärst du immer noch da?
+Wärst du immer noch hier?
+Selbst wenn ich mal alles verlier?
+Bist du da, wenn mich keiner mehr hier kennt?
+Oder steh ich ganz allein hier und kämpf?
+[Part 2]
+Wärst du noch da, wenn ich keine Fans mehr hab
+Und die Malediven tausch gegen Campingplatz?
+Kein Shoppen mehr in all den Boutiquen
+Trägst du sie nach Hause, vomAldidie Tüten?
+Würdest du noch da sein, wenn ich dir nichts bieten könnte
+Außer meiner Liebe, wär das unser Ende?
+Keine Platin American Express mehr
+Sag mir, ob ich für dich dann immer noch perfekt wär'?
+Würden wir dann immer noch so lachen?
+Ich mein' vom Herzen, nie mehr erste Klasse
+Wieder ganz normal aufsteh'n um sieben
+Wieder auf die Baustelle, raus geh'n und frieren
+Würdest du dann noch nachts für mich kochen?
+Oder wär unsere Liebe wie ein Glas dran zerbrochen
+Wenn ich ein Niemand wär', würde es sich zeigen
+Wahre Liebe erfährst du erst in schlechten Zeiten...
+[Hook]
+Wärst du immer noch da?
+Wärst du immer noch hier?
+Selbst wenn ich mal alles verlier?
+Bist du da, wenn mich keiner mehr hier kennt?
+Oder steh ich ganz allein hier und kämpf?
+Wärst du immer noch da?
+Wärst du immer noch hier?
+Selbst wenn ich mal alles verlier?
+Bist du da, wenn mich keiner mehr hier kennt?
+Oder steh ich ganz allein hier und kämpf?
+[Part 3]
+Irgendwann sind die schönen Tage gezählt
+Und du merkst wie die Jahre vergehn
+Was bedeutet Glück?
+Und was bedeutet lieben?
+Wann ist man zufrieden?
+Schau mir in die Augen, sie werden sich nicht ändern
+Schau mit deinem Herzen und du erkennst dann
+Der größte Besitz eines Menschen ist nicht sein Besitz
+Sondern wie er dich liebt und beschützt
+[Hook]
+Wärst du immer noch da?
+Wärst du immer noch hier?
+Selbst wenn ich mal alles verlier?
+Bist du da, wenn mich keiner mehr hier kennt?
+Oder steh ich ganz allein hier und kämpf?
+Wärst du immer noch da?
+Wärst du immer noch hier?
+Selbst wenn ich mal alles verlier?
+Bist du da, wenn mich keiner mehr hier kennt?
+Oder steh ich ganz allein hier und kämpf?</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1181,9 +1981,78 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Intro: J-Luv]Ich weine nicht mehrIch blicke zum HimmelUnd was ich dort sehHab ich nie gewolltDenn ich seh einen Engel weinen[Hook: J-Luv]Mama, ich wollte nie hier seinDu hast mich nicht einmal gefragtUnd trotzdem, bin ich dir heute dafür dankbarEs war ein Geschenk das du mir gabst, Ich liebe Dich[Part 1: Bushido]Es gibt Dinge, die Kinder nicht versteh'nDeshalb konntest du mich im Kinderzimmer seh'nIch wollte nie mit den anderen spiel'nMir war selbst Besuch von Bekannten zu vielDenn diese Stimmen im Kopf machten AngstUnd deshalb wollte ich mit dem Kopf durch die WandIch konnte nie versteh'n und das was geflossen istWaren letzendlich nur deine TränenMeine Wut machte blindDer Hass wuchs heranUnd alles was ich sagte, war: "Lasst mich verdammt"Ich dachte sie wollten mir etwas Schlechtes antunDenn ich war so jung und verletzlichFür sie hatte dieser Junge keine ZieleProbleme die er machteEin stummer Schrei nach LiebeKeine PerspektiveIch fühlte mich so alleinMeine Welt war trist und verschneit
-[Hook: J-Luv]MamaIch wollte nie hier seinDu hast mich nicht einmal gefragtUnd trotzdem, bin ich dir heute dafür dankbarEs war ein Geschenk das du mir gabst, Ich liebe Dich[Part 2: Bushido]Es gibt Dinge, die ich heute verstehMama wollte mir die Freude nicht nehm'nSie hatte sich gesorgt, sie wollte nur mein BestesUnd soll ich dir was sagen, Mama heute schätz' ich'sIch hab' dir Kummer gemacht und Sorgen, ich weißDoch tief drin gehofft, dass du's morgen verzeihstDu bist so unendlich gutUnd ja, ich war nicht reifIch geb' diesen Punkt endlich zuDu bist die Güte in PersonUnd egal was ich mach', trotzdem liebst du deinen SohnFängst mich auf wenn ich fall'Bist da wenn ich nichts binDie einzige Frau die mein Glück willUnd all die Fehler die ich habProbleme die ich machGanz egal wie sehr ich mein Leben hier verkackSie ist über mirDeine schützende HandBist die Person, der ich mein Glück hier verdank'
-[Hook: J-Luv]MamaIch wollte nie hier seinDu hast mich nicht einmal gefragtUnd trotzdem, bin ich dir heute dafür dankbarEs war ein Geschenk das du mir gabst, Ich liebe Dich[Outro: J-Luv]Ich weine nicht mehrIch blicke zum HimmelUnd du schaust mich anDenn du liebst michSo wie ich binUnd ich seh einen Engel lächeln</t>
+          <t>[Songtext zu „Dankbar" ft. J-Luv]
+[Intro: J-Luv]
+Ich weine nicht mehr
+Ich blicke zum Himmel
+Und was ich dort seh
+Hab ich nie gewollt
+Denn ich seh einen Engel weinen
+[Hook: J-Luv]
+Mama, ich wollte nie hier sein
+Du hast mich nicht einmal gefragt
+Und trotzdem, bin ich dir heute dafür dankbar
+Es war ein Geschenk das du mir gabst, Ich liebe Dich
+[Part 1: Bushido]
+Es gibt Dinge, die Kinder nicht versteh'n
+Deshalb konntest du mich im Kinderzimmer seh'n
+Ich wollte nie mit den anderen spiel'n
+Mir war selbst Besuch von Bekannten zu viel
+Denn diese Stimmen im Kopf machten Angst
+Und deshalb wollte ich mit dem Kopf durch die Wand
+Ich konnte nie versteh'n und das was geflossen ist
+Waren letzendlich nur deine Tränen
+Meine Wut machte blind
+Der Hass wuchs heran
+Und alles was ich sagte, war: „Lasst mich verdammt"
+Ich dachte, sie wollten mir etwas Schlechtes antun
+Denn ich war so jung und verletzlich
+Für sie hatte dieser Junge keine Ziele
+Probleme die er machte
+Ein stummer Schrei nach Liebe
+Keine Perspektive
+Ich fühlte mich so allein
+Meine Welt war trist und verschneit
+[Hook: J-Luv]
+Mama
+Ich wollte nie hier sein
+Du hast mich nicht einmal gefragt
+Und trotzdem, bin ich dir heute dafür dankbar
+Es war ein Geschenk das du mir gabst, Ich liebe Dich
+[Part 2: Bushido]
+Es gibt Dinge, die ich heute versteh
+Mama wollte mir die Freude nicht nehm'n
+Sie hatte sich gesorgt, sie wollte nur mein Bestes
+Und soll ich dir was sagen, Mama heute schätz' ich's
+Ich hab' dir Kummer gemacht und Sorgen, ich weiß
+Doch tief drin gehofft, dass du's morgen verzeihst
+Du bist so unendlich gut
+Und ja, ich war nicht reif
+Ich geb' diesen Punkt endlich zu
+Du bist die Güte in Person
+Und egal was ich mach', trotzdem liebst du deinen Sohn
+Fängst mich auf wenn ich fall'
+Bist da wenn ich nichts bin
+Die einzige Frau die mein Glück will
+Und all die Fehler die ich hab
+Probleme die ich mach
+Ganz egal wie sehr ich mein Leben hier verkack
+Sie ist über mir
+Deine schützende Hand
+Bist die Person, der ich mein Glück hier verdank'
+[Hook: J-Luv]
+Mama
+Ich wollte nie hier sein
+Du hast mich nicht einmal gefragt
+Und trotzdem, bin ich dir heute dafür dankbar
+Es war ein Geschenk das du mir gabst, Ich liebe Dich
+[Outro: J-Luv]
+Ich weine nicht mehr
+Ich blicke zum Himmel
+Und du schaust mich an
+Denn du liebst mich
+So wie ich bin
+Und ich seh einen Engel lächeln</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1237,9 +2106,76 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Songtext zu „Hassliebe“ ft. Kay One][Hook: Kay One]Ich füll mein Glas mit Whiskey aufDu hatest grad den Falschen, ich knips dich ausUns interessiert kein Rap und BeefIch ficke lieber Chicks in der Junior SuiteUnd der Typ hier rechts ist Mister BlackUnd wir zwei scheißen auf dein' DisrespectUns interessiert nur Macht und FameAlso mach's wie Bu oder mach's wie Kay[Part 1: Bushido]Nenn mich Peter Pan, denn ich bleib für immer jungSonny Black steht allein im MittelpunktTrack für Track schreib ich mir die Finger wundMacBook: Deine Mutter als HintergrundIch setz' ein Zeichen, ich schätz' die meistenRapper rauchen jetzt ihr Crack in PfeifenIch werde niemals vergessen, wer ich binUnd du vergisst, wo du herkommst, du MärchenprinzIch bin der Headliner, ich mach das ganz große GeldSelbst wenn ich Banknoten fälschDu kannst bloß dir selbst schaden aber mir nichtWeil selbst mein Name patentiert istDu kannst es drehen wie du willst, doch leiderKommst du in deinem Leben nicht weiterIch therapier ihn und therapier dich sowiesoIn der untersten Schublade sitzt mein Niveau
-[Hook: Kay One]Ich füll mein Glas mit Whiskey aufDu hatest grad den Falschen, ich knips dich ausUns interessiert kein Rap und BeefIch ficke lieber Chicks in der Junior SuiteUnd der Typ hier rechts ist Mister BlackUnd wir zwei scheißen auf dein' DisrespectUns interessiert nur Macht und FameAlso mach's wie Bu oder mach's wie Kay[Part 2: Bushido]Yeah yeah yeah yeah yeah, ich bleib ein OriginalSorry, du hast kein PotenzialIch mach's publik: Ich fick mit deinen acht CousinenGib Gas, yeah, schwarz-matt, Q7Du Hund bist im Fokus, ich jag dich um diesen GlobusDenn ich bin von Grund auf niveaulosIch verfolg deine SendungFamilien im Brennpunkt, kein Happy-End, JungsDenn du erntest was du sästDu bist nur ein Clown, jeder lacht, wenn du ernsthaft was erzählstJa, ich gehe diesen Weg, scheiß draufTöten, um zu überleben, sein klein aufUm deine FrageZu beantworten, ja wir sind Jungs von der StraßeStirb, wohin sind all die Rapper gegangen?Und wen ich ficke ist der Presse bekanntYeah
-[Hook: Kay One]Ich füll mein Glas mit Whiskey aufDu hatest grad den Falschen, ich knips dich ausUns interessiert kein Rap und BeefIch ficke lieber Chicks in der Junior SuiteUnd der Typ hier rechts ist Mister BlackUnd wir zwei scheißen auf dein' DisrespectUns interessiert nur Macht und FameAlso mach's wie Bu oder mach's wie Kay[Interlude][mehrere Schreie: "Bushido!"][Hook: Kay One]Ich füll mein Glas mit Whiskey aufDu hatest grad den Falschen, ich knips dich ausUns interessiert kein Rap und BeefIch ficke lieber Chicks in der Junior SuiteUnd der Typ hier rechts ist Mister BlackUnd wir zwei scheißen auf dein' DisrespectUns interessiert nur Macht und FameAlso mach's wie Bu oder mach's wie Kay</t>
+          <t>[Songtext zu „Hassliebe“ ft. Kay One]
+[Hook: Kay One]
+Ich füll mein Glas mit Whiskey aufDu hatest grad den Falschen, ich knips dich aus
+Uns interessiert kein Rap und Beef
+Ich ficke lieber Chicks in der Junior Suite
+Und der Typ hier rechts ist Mister Black
+Und wir zwei scheißen auf dein' Disrespect
+Uns interessiert nur Macht und Fame
+Also mach's wie Bu oder mach's wie Kay
+[Part 1: Bushido]
+Nenn mich Peter Pan, denn ich bleib für immer jung
+Sonny Black steht allein im Mittelpunkt
+Track für Track schreib ich mir die Finger wund
+MacBook: Deine Mutter als Hintergrund
+Ich setz' ein Zeichen, ich schätz' die meisten
+Rapper rauchen jetzt ihr Crack in Pfeifen
+Ich werde niemals vergessen, wer ich bin
+Und du vergisst, wo du herkommst, du Märchenprinz
+Ich bin der Headliner, ich mach das ganz große Geld
+Selbst wenn ich Banknoten fälsch
+Du kannst bloß dir selbst schaden aber mir nicht
+Weil selbst mein Name patentiert ist
+Du kannst es drehen wie du willst, doch leider
+Kommst du in deinem Leben nicht weiter
+Ich therapier ihn und therapier dich sowieso
+In der untersten Schublade sitzt mein Niveau
+[Hook: Kay One]
+Ich füll mein Glas mit Whiskey aufDu hatest grad den Falschen, ich knips dich aus
+Uns interessiert kein Rap und Beef
+Ich ficke lieber Chicks in der Junior Suite
+Und der Typ hier rechts ist Mister Black
+Und wir zwei scheißen auf dein' Disrespect
+Uns interessiert nur Macht und Fame
+Also mach's wie Bu oder mach's wie Kay
+[Part 2: Bushido]
+Yeah yeah yeah yeah yeah, ich bleib ein Original
+Sorry, du hast kein Potenzial
+Ich mach's publik: Ich fick mit deinen acht Cousinen
+Gib Gas, yeah, schwarz-matt, Q7
+Du Hund bist im Fokus, ich jag dich um diesen Globus
+Denn ich bin von Grund auf niveaulos
+Ich verfolg deine Sendung
+Familien im Brennpunkt, kein Happy-End, Jungs
+Denn du erntest was du säst
+Du bist nur ein Clown, jeder lacht, wenn du ernsthaft was erzählst
+Ja, ich gehe diesen Weg, scheiß drauf
+Töten, um zu überleben, sein klein auf
+Um deine Frage
+Zu beantworten, ja wir sind Jungs von der Straße
+Stirb, wohin sind all die Rapper gegangen?
+Und wen ich ficke ist der Presse bekannt
+Yeah
+[Hook: Kay One]
+Ich füll mein Glas mit Whiskey aufDu hatest grad den Falschen, ich knips dich aus
+Uns interessiert kein Rap und Beef
+Ich ficke lieber Chicks in der Junior Suite
+Und der Typ hier rechts ist Mister Black
+Und wir zwei scheißen auf dein' Disrespect
+Uns interessiert nur Macht und Fame
+Also mach's wie Bu oder mach's wie Kay
+[Interlude]
+[mehrere Schreie: "Bushido!"]
+[Hook: Kay One]
+Ich füll mein Glas mit Whiskey aufDu hatest grad den Falschen, ich knips dich aus
+Uns interessiert kein Rap und Beef
+Ich ficke lieber Chicks in der Junior Suite
+Und der Typ hier rechts ist Mister Black
+Und wir zwei scheißen auf dein' Disrespect
+Uns interessiert nur Macht und Fame
+Also mach's wie Bu oder mach's wie Kay</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1293,8 +2229,60 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Part 1]Es ist leicht Bushido zu sein, aber Anis sein ist schwerZehntausend Hände beim Konzert, du endest so wie ____Denn ohne mich, bist du nichtsUnd Plattenfirmen sind gefickt, yeah, Stück für StückMTV was ist los? Pay TV Wow!Und der Echo National, Slim Shady, räumt aufArmes Deutschland, Deutschland ich liebe dichDeine Industrie hat sich so krass ins Knie geficktMarketing hin, yeah, Marketing herIch sag es nicht gern, aber Saad muss lern'nNix läuft ohne EGJIch bin ein Teufel von Label BossGuck, du kriegst fünf Euro beim NebenjobWer von euch stoppt mich jetztIch nehm' auf meine Tour einen Koch mit, esIst alles so gekomm'n, wie ich es erhofft habKay öffnet den Vodka und trinkt auf dem Rockstar[Hook]Und das was ich als Kind nie hatte, werd ich hol'nWie hart hab' ich gekämpft, das hier bleibt mein MonopolMich hat's nie interessiert, was ihr denktDenn ihr wart mit fremdUnd ich mach's so lange weiter, wie's sich lohntUnd das was ich als Kind nie hatte, werd ich hol'nWie hart hab' ich gekämpft, das hier bleibt mein MonopolMich hat's nie interessiert, was ihr denktDenn ihr wart mit fremdUnd ich mach's so lange weiter, wie's sich lohnt
-[Part 2]Es ist leicht zu rappen, doch wer von euch erreicht mein Niveau?Deutscher Rap bleibt ein StreicheltierzooMein Monopol, geh', mach deine DisstracksAber wenn du kommst, wirst du Bastard gekidnapptReebok Classics, wie ich auf dem Beat flow, lässigDenkst du echt, dass du mit Bushido chattest?Facebook, Twitter von Fans so verfolgtEin Mensch aus dem Volk, schmückt die Wände mit GoldMaischberger, Kerner, 3 nach 9 RaabGroßer Schock, weil Deutsch mein Leistungskurs warKlar, gibt's noch so viele die mich hassenDenn ich hab was riesiges erschaffenDer Beef ging von mir aus und ich hab' ihn beendetSido, wir haben unsre Zeit nur verschwendetDoch Zeit ist Geld und sie wird uns gestohl'nDeutscher Rap ist mein Monopol![Hook]Und das was ich als Kind nie hatte, werd ich hol'nWie hart hab' ich gekämpft, das hier bleibt mein MonopolMich hat's nie interessiert, was ihr denktDenn ihr wart mit fremdUnd ich mach's so lange weiter, wie's sich lohntUnd das was ich als Kind nie hatte, werd ich hol'nWie hart hab' ich gekämpft, das hier bleibt mein MonopolMich hat's nie interessiert, was ihr denktDenn ihr wart mit fremdUnd ich mach's so lange weiter, wie's sich lohnt</t>
+          <t>[Part 1]
+Es ist leicht Bushido zu sein, aber Anis sein ist schwer
+Zehntausend Hände beim Konzert, du endest so wie ____
+Denn ohne mich, bist du nichts
+Und Plattenfirmen sind gefickt, yeah, Stück für Stück
+MTV was ist los? Pay TV Wow!
+Und der Echo National, Slim Shady, räumt auf
+Armes Deutschland, Deutschland ich liebe dich
+Deine Industrie hat sich so krass ins Knie gefickt
+Marketing hin, yeah, Marketing her
+Ich sag es nicht gern, aber Saad muss lern'nNix läuft ohne EGJ
+Ich bin ein Teufel von Label Boss
+Guck, du kriegst fünf Euro beim Nebenjob
+Wer von euch stoppt mich jetzt
+Ich nehm' auf meine Tour einen Koch mit, es
+Ist alles so gekomm'n, wie ich es erhofft hab
+Kay öffnet den Vodka und trinkt auf dem Rockstar
+[Hook]
+Und das was ich als Kind nie hatte, werd ich hol'n
+Wie hart hab' ich gekämpft, das hier bleibt mein Monopol
+Mich hat's nie interessiert, was ihr denkt
+Denn ihr wart mit fremd
+Und ich mach's so lange weiter, wie's sich lohnt
+Und das was ich als Kind nie hatte, werd ich hol'n
+Wie hart hab' ich gekämpft, das hier bleibt mein Monopol
+Mich hat's nie interessiert, was ihr denkt
+Denn ihr wart mit fremd
+Und ich mach's so lange weiter, wie's sich lohnt
+[Part 2]
+Es ist leicht zu rappen, doch wer von euch erreicht mein Niveau?
+Deutscher Rap bleibt ein Streicheltierzoo
+Mein Monopol, geh', mach deine Disstracks
+Aber wenn du kommst, wirst du Bastard gekidnappt
+Reebok Classics, wie ich auf dem Beat flow, lässig
+Denkst du echt, dass du mit Bushido chattest?Facebook, Twitter von Fans so verfolgt
+Ein Mensch aus dem Volk, schmückt die Wände mit Gold
+Maischberger,Kerner, 3 nach 9 Raab
+Großer Schock, weil Deutsch mein Leistungskurs war
+Klar, gibt's noch so viele die mich hassen
+Denn ich hab was riesiges erschaffen
+Der Beef ging von mir aus und ich hab' ihn beendetSido, wir haben unsre Zeit nur verschwendet
+Doch Zeit ist Geld und sie wird uns gestohl'n
+Deutscher Rap ist mein Monopol!
+[Hook]
+Und das was ich als Kind nie hatte, werd ich hol'n
+Wie hart hab' ich gekämpft, das hier bleibt mein Monopol
+Mich hat's nie interessiert, was ihr denkt
+Denn ihr wart mit fremd
+Und ich mach's so lange weiter, wie's sich lohnt
+Und das was ich als Kind nie hatte, werd ich hol'n
+Wie hart hab' ich gekämpft, das hier bleibt mein Monopol
+Mich hat's nie interessiert, was ihr denkt
+Denn ihr wart mit fremd
+Und ich mach's so lange weiter, wie's sich lohnt</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,8 +2336,55 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Part 1]Meine Laune gleicht dem Dreckswetter draußenIch guck raus und die Regentropfen halten mich zuhauseMein Kühlschrank ist leerIch kann dieses Gefühl nicht erklär'nDiese Schatten fallen über mich herDie Wände werden engerEs fällt mir schwer zu atmenEs fühlt sich an als wäre man lebendig hier begrabenDer Herzschlag er steigt, Panik macht sich breitIch merke die Dämonen in mir haben sich befreitIch falle auf die KnieUnd senke meinen KopfIch schaff es nicht alleine, bitte hilf mir lieber GottSchick mir einen Engel, jemand der mir beistehtIch kann diesen Weg nicht allein geh'n[Hook x2]Lieber Gott schick mir, schick mir einen EngelViel zu lang musste ich kämpfenNarben an den HändenLieber Gott schick mir, jemand der mir hilftIch zeichne mit Tränen dieses Bild[Part 2]Ich warte auf das MorgengrauenDoch warten ist vergeblichJeder scheiß Tag ist unerträglichNichtsmehr bewegt sichDie Welt steht hier stillIch krieg keine Luft unter diesem Berg voller MüllMeine Augen fallen zuDoch der Donner weckt mich aufIch irre durch den NebelDie Sonne geht nicht aufEs ist schwer sie aufzuhaltenIch rede von den TränenMit von den ProblemenFür mein Alter hab ich zu viel geseh'nIch steh auf und blicke zu dir raufIch weiß ganz genau, du gibst mich nicht aufDenn du liebst mich genau, soWie jeden ander'n Menschen auf der WeltUnd ich bin dankbar
-[Hook x2][Bridge x2]Ich habe meine Hoffnung fast verlor'nMein Wort in Gottes Ohr'nEs ist nicht immer leicht stark zu bleibenGerade in den harten Zeiten[Hook x2]</t>
+          <t>[Part 1]
+Meine Laune gleicht dem Dreckswetter draußen
+Ich guck raus und die Regentropfen halten mich zuhause
+Mein Kühlschrank ist leer
+Ich kann dieses Gefühl nicht erklär'n
+Diese Schatten fallen über mich her
+Die Wände werden enger
+Es fällt mir schwer zu atmen
+Es fühlt sich an als wäre man lebendig hier begraben
+Der Herzschlag er steigt, Panik macht sich breit
+Ich merke die Dämonen in mir haben sich befreit
+Ich falle auf die Knie
+Und senke meinen Kopf
+Ich schaff es nicht alleine, bitte hilf mir lieber Gott
+Schick mir einen Engel, jemand der mir beisteht
+Ich kann diesen Weg nicht allein geh'n
+[Hook x2]
+Lieber Gott schick mir, schick mir einen Engel
+Viel zu lang musste ich kämpfen
+Narben an den Händen
+Lieber Gott schick mir, jemand der mir hilft
+Ich zeichne mit Tränen dieses Bild
+[Part 2]
+Ich warte auf das Morgengrauen
+Doch warten ist vergeblich
+Jeder scheiß Tag ist unerträglich
+Nichtsmehr bewegt sich
+Die Welt steht hier still
+Ich krieg keine Luft unter diesem Berg voller Müll
+Meine Augen fallen zu
+Doch der Donner weckt mich auf
+Ich irre durch den Nebel
+Die Sonne geht nicht auf
+Es ist schwer sie aufzuhalten
+Ich rede von den Tränen
+Mit von den Problemen
+Für mein Alter hab ich zu viel geseh'n
+Ich steh auf und blicke zu dir rauf
+Ich weiß ganz genau, du gibst mich nicht auf
+Denn du liebst mich genau, so
+Wie jeden ander'n Menschen auf der Welt
+Und ich bin dankbar
+[Hook x2]
+[Bridge x2]
+Ich habe meine Hoffnung fast verlor'n
+Mein Wort in Gottes Ohr'n
+Es ist nicht immer leicht stark zu bleiben
+Gerade in den harten Zeiten
+[Hook x2]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1403,9 +2438,82 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Intro: Kay One]Cash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersEs geht geht geht geht nur um das Geld[Hook: Kay One]Cash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersEs geht geht geht geht geht nur um das GeldDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der Fame Fame Fame Fame[Part 1: Kay One]Geldbündel hier, Geldbündel daMir geht es blendend die Welt küsst mein arschMoët Rosé, ihr duft CloéHalt mir die Tür auf, du scheiß PortierCadillac blink und ich trink auf michWo sind meine münchner Chicks?All black, meine Big Bang ticktWer geht jeder Bitch fremd, Bitch fremd? Ich!T-Shirt Gucci, Dsquared, Dior, frag Sonny BlackIch krieg' nie einen KorbMein Hollywood Flow öffnet die TürenChampanger im Studio, ich köpfe sie hierKlick klick klick boom, Blitzlicht RuhmSie taucht und ich habe abgespritzt im PoolIch red von dem Whirlpool hier winken Girls zu6.000 Euro, das ist ein Vertu
-[Hook: Kay One]Cash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersEs geht geht geht geht geht nur um das GeldDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der Fame Fame Fame Fame[Part 2: Bushido]Goldplattenrapper, ihr wollt den Verbrecher?Du solltest zurück in den Volkswagen klettern!Ich bleib' unerreichbar B-l-a-c-kWeil ich im Charles die Hotelbar zerschlag'Warum ich noch rap? Klunker und CashIch wurde entjungfert mit sechsDu Hund nimm den ScheckGeh und verpiss dichMeine kleine Welt (Welt) dreht sich um Bitches!Ihr seid nur Ökos wie JuliIch vögel und vögel die Groupies, schön wie du zusiehst!Du hörst dich wie Beatsteaks anAber wie Kay One trag' ich VH-OnesIch bin ein Angeber?Halt die Schnauze du scheiß AutogrammjägerDas ist Lammleder, ich zahl die elftausend BarBei mir macht's die Mischung, Geld und mein Charme
-[Hook: Kay One]Cash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersEs geht geht geht geht geht nur um das GeldDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der Fame Fame Fame Fame[Outro: Kay One]Der Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der FameDer Grund warum ich rappe? Weiber und der Fame Fame Fame FameCash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersCash Money Brothers, Cash Money Money BrothersEs geht geht geht geht geht nur um das Geld</t>
+          <t>[Intro: Kay One]
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Es geht geht geht geht nur um das Geld
+[Hook: Kay One]
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Es geht geht geht geht geht nur um das Geld
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame Fame Fame Fame
+[Part 1: Kay One]
+Geldbündel hier, Geldbündel da
+Mir geht es blendend die Welt küsst mein arsch
+Moët Rosé, ihr duft Cloé
+Halt mir die Tür auf, du scheiß Portier
+Cadillac blink und ich trink auf mich
+Wo sind meine münchner Chicks?
+All black, meine Big Bang tickt
+Wer geht jeder Bitch fremd, Bitch fremd? Ich!
+T-Shirt Gucci, Dsquared, Dior, frag Sonny Black
+Ich krieg' nie einen Korb
+Mein Hollywood Flow öffnet die Türen
+Champanger im Studio, ich köpfe sie hier
+Klick klick klick boom, Blitzlicht Ruhm
+Sie taucht und ich habe abgespritzt im Pool
+Ich red von dem Whirlpool hier winken Girls zu
+6.000 Euro, das ist ein Vertu
+[Hook: Kay One]
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Es geht geht geht geht geht nur um das Geld
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame Fame Fame Fame
+[Part 2: Bushido]
+Goldplattenrapper, ihr wollt den Verbrecher?
+Du solltest zurück in den Volkswagen klettern!
+Ich bleib' unerreichbar B-l-a-c-k
+Weil ich im Charles die Hotelbar zerschlag'
+Warum ich noch rap? Klunker und Cash
+Ich wurde entjungfert mit sechs
+Du Hund nimm den Scheck
+Geh und verpiss dich
+Meine kleine Welt (Welt) dreht sich um Bitches!
+Ihr seid nur Ökos wie Juli
+Ich vögel und vögel die Groupies, schön wie du zusiehst!
+Du hörst dich wie Beatsteaks an
+Aber wie Kay One trag' ich VH-Ones
+Ich bin ein Angeber?
+Halt die Schnauze du scheiß Autogrammjäger
+Das ist Lammleder, ich zahl die elftausend Bar
+Bei mir macht's die Mischung, Geld und mein Charme
+[Hook: Kay One]
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Es geht geht geht geht geht nur um das Geld
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame Fame Fame Fame
+[Outro: Kay One]
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame
+Der Grund warum ich rappe? Weiber und der Fame Fame Fame Fame
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Cash Money Brothers, Cash Money Money Brothers
+Es geht geht geht geht geht nur um das Geld</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1459,9 +2567,67 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Songtext zu „Nichts ist für immer"][Hook]Mein Auto, das Haus, die PlattenDie teuren UhrenAll das nehm' ich nicht mit ins GrabDer Schmuck, die PreiseDie Frauen und mein GeldIrgendwann ist alles nicht mehr daDenn nichts ist für immerDenn nichts ist für immerEgal was ich geschafft, egal was ich gemacht hab'Nichts ist für immer, nichts ist für immer[Part 1]Ich hab' schon so viel erreichtUnd bin dankbar für jeden TagNicht dass ich Mercedes fahr', sondern leben darfIch wollte rappen und Gott gab mir den ErfolgUnd von meinen Platten ging fast jede GoldEs war nichts selbstverständlich, was alles kamDieses Leben war ein Kampf und vor allem hartViele Türen waren geschlossen und die Versprechen wurden oft gebrochenHass und auch Neid, scheiß StreitereienWie oft war ich allein am Weinen und ich weißGeld macht nicht glücklich, wenn du mal krank bistScheißt du auf die ganzen MillionenUnd die Angst fickt jeden Tag dein'n KopfEinschlafen geht nicht und jeden Tag nur PartysUnd Lifestyle ist ekligEgal was ich geschafft hab und ich besitz'Ich weiß, in den Tod nehm' ich nichts mit
-[Hook]Mein Auto, das Haus, die PlattenDie teuren UhrenAll das nehm' ich nicht mit ins GrabDer Schmuck, die PreiseDie Frauen und mein GeldIrgendwann ist alles nicht mehr daDenn nichts ist für immerDenn nichts ist für immerEgal was ich geschafft, egal was ich gemacht hab'Nichts ist für immer, nichts ist für immer[Part 2]Und selbst die schönste Rose auf der WeltSiehst du irgendwann im Boden, sie verwelktDas Lachen deiner Mutter, der Glanz in den AugenDie zehntausend Preise im Schrank, sie verstaubenDu wirst müde und kraftlosHerr, wie trage ich die riesige Last bloß?Und der Hass tobt. Und glaub mir, ich hab' nicht schlecht geträumtNichts ist für immer, auch nicht dein bester FreundDie Erinnerung, sie wird bleibenUnd ich hoffe sie wird in den Himmel steigenWie gern würde ich sie festhalten und dann mitnehm'nWenn ich vor dem jüngsten Gericht steh'Ich hab' versucht, ein guter Mensch zu seinUnd mein Herz, es ist längst schon reinEgal, was ich geschafft hab', und was ich besitz'Ich weiß, in den Tod nehm' ich nichts mit
-[Hook]Mein Auto, das Haus, die PlattenDie teuren UhrenAll das nehm' ich nicht mit ins GrabDer Schmuck, die PreiseDie Frauen und mein GeldIrgendwann ist alles nicht mehr daDenn nichts ist für immerDenn nichts ist für immerEgal was ich geschafft, egal was ich gemacht hab'Nichts ist für immer, nichts ist für immer[Outro]Mein Auto, das Haus, die PlattenDie teuren UhrenAll das nehm' ich nicht mit ins GrabDer Schmuck, die PreiseDie Frauen und mein GeldIrgendwann ist alles nicht mehr daDenn nichts ist für immerDenn nichts ist für immerEgal was ich geschafft, egal was ich gemacht hab'Nichts ist für immer, nichts ist für immer</t>
+          <t>[Songtext zu „Nichts ist für immer"]
+[Hook]
+Mein Auto, das Haus, die PlattenDie teuren UhrenAll das nehm' ich nicht mit ins Grab
+Der Schmuck, die PreiseDie Frauen und mein GeldIrgendwann ist alles nicht mehr da
+Denn nichts ist für immer
+Denn nichts ist für immer
+Egal was ich geschafft, egal was ich gemacht hab'
+Nichts ist für immer, nichts ist für immer
+[Part 1]
+Ich hab' schon so viel erreicht
+Und bin dankbar für jeden Tag
+Nicht dass ich Mercedes fahr', sondern leben darf
+Ich wollte rappen und Gott gab mir den Erfolg
+Und von meinen Platten ging fast jede Gold
+Es war nichts selbstverständlich, was alles kam
+Dieses Leben war ein Kampf und vor allem hart
+Viele Türen waren geschlossen und die Versprechen wurden oft gebrochen
+Hass und auch Neid, scheiß Streitereien
+Wie oft war ich allein am Weinen und ich weiß
+Geld macht nicht glücklich, wenn du mal krank bistScheißt du auf die ganzen MillionenUnd die Angst fickt jeden Tag dein'n Kopf
+Einschlafen geht nicht und jeden Tag nur Partys
+Und Lifestyle ist eklig
+Egal was ich geschafft hab und ich besitz'
+Ich weiß, in den Tod nehm' ich nichts mit
+[Hook]
+Mein Auto, das Haus, die PlattenDie teuren UhrenAll das nehm' ich nicht mit ins Grab
+Der Schmuck, die PreiseDie Frauen und mein GeldIrgendwann ist alles nicht mehr da
+Denn nichts ist für immer
+Denn nichts ist für immer
+Egal was ich geschafft, egal was ich gemacht hab'
+Nichts ist für immer, nichts ist für immer
+[Part 2]
+Und selbst die schönste Rose auf der WeltSiehst du irgendwann im Boden, sie verwelkt
+Das Lachen deiner Mutter, der Glanz in den Augen
+Die zehntausend Preise im Schrank, sie verstauben
+Du wirst müde und kraftlos
+Herr, wie trage ich die riesige Last bloß?
+Und der Hass tobt. Und glaub mir, ich hab' nicht schlecht geträumt
+Nichts ist für immer, auch nicht dein bester Freund
+Die Erinnerung, sie wird bleiben
+Und ich hoffe sie wird in den Himmel steigen
+Wie gern würde ich sie festhalten und dann mitnehm'n
+Wenn ich vor dem jüngsten Gericht steh'
+Ich hab' versucht, ein guter Mensch zu sein
+Und mein Herz, es ist längst schon rein
+Egal, was ich geschafft hab', und was ich besitz'
+Ich weiß, in den Tod nehm' ich nichts mit
+[Hook]
+Mein Auto, das Haus, die PlattenDie teuren UhrenAll das nehm' ich nicht mit ins Grab
+Der Schmuck, die PreiseDie Frauen und mein GeldIrgendwann ist alles nicht mehr da
+Denn nichts ist für immer
+Denn nichts ist für immer
+Egal was ich geschafft, egal was ich gemacht hab'
+Nichts ist für immer, nichts ist für immer
+[Outro]
+Mein Auto, das Haus, die PlattenDie teuren UhrenAll das nehm' ich nicht mit ins Grab
+Der Schmuck, die PreiseDie Frauen und mein GeldIrgendwann ist alles nicht mehr da
+Denn nichts ist für immer
+Denn nichts ist für immer
+Egal was ich geschafft, egal was ich gemacht hab'
+Nichts ist für immer, nichts ist für immer</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
